--- a/target/classes/caseconf/userQueryLimit/Case_userQueryLimit.xlsx
+++ b/target/classes/caseconf/userQueryLimit/Case_userQueryLimit.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="147">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -406,12 +406,244 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>mobileNo存在单条返回值-单独查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>certNo存在单条返回值-单独查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/queryLimit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>email存在单条返回值-单独查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name不存在</t>
+    <rPh sb="4" eb="5">
+      <t>bu'cun'zai</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>{
     "tenantId": "12345678",
-    "params": {"name": "小明"
+    "params": {"name": "电脑",
+    "mobileNo": "13366590175"
     },
-    "dataType": "1",
-    "dataDetail": "all"
+    "dataType": "1"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "USR2002",
+    "resMsg": "用户不存在",
+    "successful": 0
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobileNo不存在</t>
+    <rPh sb="8" eb="9">
+      <t>bu'cun'zai</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>certNo不存在</t>
+    <rPh sb="6" eb="7">
+      <t>bu'cun'zai</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "12345678",
+    "params": {"mobileNo": "13366590175",
+     "certNo": "0000"
+    },
+    "dataType": "1"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>email不存在</t>
+    <rPh sb="5" eb="6">
+      <t>bu'cun'zai</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "12345678",
+    "params": {"mobileNo": "13366590175",
+     "email": "qwertyuiop"
+    },
+    "dataType": "1"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name存在多条返回值-单独查询</t>
+    <rPh sb="6" eb="7">
+      <t>duo</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/queryLimit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobileNo存在多条返回值-单独查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>email存在多条返回值-单独查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>certNo存在多条返回值-单独查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>交集查询-都有结果</t>
+    <rPh sb="5" eb="6">
+      <t>dou'you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie'guo</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>交集查询-都没有结果</t>
+    <rPh sb="5" eb="6">
+      <t>dou'you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie'guo</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "12345678",
+    "params": {"mobileNo":"99988703",
+    "email": "qwe@126.com"
+    },
+    "dataType": "1"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>交集查询-有的存在结果，有的不存在</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cha'xun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you'de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>cun'zai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you'de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bu'cu'an'zai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>cun'zai</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "USR2002",
+    "resMsg": "用户不存在",
+    "successful": 0
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>交集查询-某些参数为空</t>
+    <rPh sb="5" eb="6">
+      <t>mou'xie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>can'shu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kong</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/queryLimit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-dataDetail创建时为空参数</t>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>chuang'jian'shi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>kong</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId": "1001",
+ "params": {"certNo":"12345"
+   },
+   "dataType":"0",
+   "dataDetail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "USR2002",
+    "resMsg": "用户不存在",
+    "successful": 0
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "12345678",
+    "params": {"email": "1234567@126.com",
+    "mobileNo":"13366590175"
+    },
+    "datatype":"0",
+    "dataDetail":"name11"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -425,10 +657,6 @@
             "tenantId": "12345678",
             "tenantUserId": "123456",
             "userId": 694516856941977600,
-            "name": "小明",
-            "mobileNo": "13366590175",
-            "certNo": "341222199303040000",
-            "email": "1234567@126.com",
             "createTime": "2020-03-31 11:02:03",
             "updateTime": "2020-03-31 11:02:03"
         }
@@ -437,13 +665,212 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>mobileNo存在单条返回值-单独查询</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"mobileNo": "13366590175"
+    <t>非必传参数-dataDetail为dwewr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+必传参数-params为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0004",
+    "resMsg": "参数异常",
+    "successful": 0
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "",
+    "params": {"email": "1234567@126.com",
+    "mobileNo":"13366590175"
+    },
+    "dataType":"1"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.queryLimit(***.web.request.QueryUserInfoByConditionReq): [Field error in object 'queryUserInfoByConditionReq' on field 'tenantId': rejected value []; codes [NotEmpty.queryUserInfoByConditionReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [queryUserInfoByConditionReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId":"consume",
+ "params":{
+         },
+ "dataType":"1",
+ "datadetail":" name"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "params":{
+        "name":"",
+        "mobileNo":"13366590175",
+        "certNo":"",
+        "email":""
+         },
+ "dataType":"1",
+ "datadetail":" name"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.queryLimit(***.web.request.QueryUserInfoByConditionReq): [Field error in object 'queryUserInfoByConditionReq' on field 'tenantId': rejected value [null]; codes [NotEmpty.queryUserInfoByConditionReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [queryUserInfoByConditionReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId":"consume",
+ "dataType":"1",
+ "datadetail":" name"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.queryLimit(***.web.request.QueryUserInfoByConditionReq): [Field error in object 'queryUserInfoByConditionReq' on field 'params': rejected value [null]; codes [NotNull.queryUserInfoByConditionReq.params,NotNull.params,NotNull.***.service.dto.UserDto,NotNull]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [queryUserInfoByConditionReq.params,params]; arguments []; default message [params]]; default message [用户信息参数不允许为空]] "
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>userQueryLimit-001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userQueryLimit-002</t>
+  </si>
+  <si>
+    <t>userQueryLimit-003</t>
+  </si>
+  <si>
+    <t>userQueryLimit-004</t>
+  </si>
+  <si>
+    <t>userQueryLimit-005</t>
+  </si>
+  <si>
+    <t>userQueryLimit-006</t>
+  </si>
+  <si>
+    <t>userQueryLimit-007</t>
+  </si>
+  <si>
+    <t>userQueryLimit-008</t>
+  </si>
+  <si>
+    <t>userQueryLimit-009</t>
+  </si>
+  <si>
+    <t>userQueryLimit-010</t>
+  </si>
+  <si>
+    <t>userQueryLimit-011</t>
+  </si>
+  <si>
+    <t>userQueryLimit-012</t>
+  </si>
+  <si>
+    <t>userQueryLimit-013</t>
+  </si>
+  <si>
+    <t>userQueryLimit-014</t>
+  </si>
+  <si>
+    <t>userQueryLimit-015</t>
+  </si>
+  <si>
+    <t>userQueryLimit-016</t>
+  </si>
+  <si>
+    <t>userQueryLimit-017</t>
+  </si>
+  <si>
+    <t>userQueryLimit-018</t>
+  </si>
+  <si>
+    <t>userQueryLimit-019</t>
+  </si>
+  <si>
+    <t>userQueryLimit-020</t>
+  </si>
+  <si>
+    <t>userQueryLimit-021</t>
+  </si>
+  <si>
+    <t>userQueryLimit-022</t>
+  </si>
+  <si>
+    <t>userQueryLimit-023</t>
+  </si>
+  <si>
+    <t>userQueryLimit-024</t>
+  </si>
+  <si>
+    <t>userQueryLimit-025</t>
+  </si>
+  <si>
+    <t>userQueryLimit-026</t>
+  </si>
+  <si>
+    <t>userQueryLimit-027</t>
+  </si>
+  <si>
+    <t>userQueryLimit-028</t>
+  </si>
+  <si>
+    <t>userQueryLimit-029</t>
+  </si>
+  <si>
+    <t>userQueryLimit-030</t>
+  </si>
+  <si>
+    <t>userQueryLimit-031</t>
+  </si>
+  <si>
+    <t>userQueryLimit-032</t>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "李四",
+            "mobileNo": "15510556733",
+            "certNo": "541222199303040000",
+            "email": "3234567@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"mobileNo": "15510556733"
     },
     "dataType": "1",
     "dataDetail": "all"
@@ -451,17 +878,30 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>certNo存在单条返回值-单独查询</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/queryLimit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"certNo": "341222199303040000"
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "李四",
+            "mobileNo": "15510556733",
+            "certNo": "541222199303040000",
+            "email": "3234567@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"certNo": "541222199303040000"
     },
     "dataType": "1",
     "dataDetail": "all"
@@ -469,39 +909,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>email存在单条返回值-单独查询</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>name不存在</t>
-    <rPh sb="4" eb="5">
-      <t>bu'cun'zai</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"name": "电脑",
-    "mobileNo": "13366590175"
-    },
+    <t>{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com"},
     "dataType": "1"
 }</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "USR2002",
-    "resMsg": "用户不存在",
-    "successful": 0
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobileNo不存在</t>
-    <rPh sb="8" eb="9">
-      <t>bu'cun'zai</t>
-    </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -515,56 +927,12 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>certNo不存在</t>
-    <rPh sb="6" eb="7">
-      <t>bu'cun'zai</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"mobileNo": "13366590175",
-     "certNo": "0000"
+    <t>{
+    "tenantId": "1001",
+    "params": {"name": "李四"
     },
-    "dataType": "1"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>email不存在</t>
-    <rPh sb="5" eb="6">
-      <t>bu'cun'zai</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"mobileNo": "13366590175",
-     "email": "qwertyuiop"
-    },
-    "dataType": "1"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>name存在多条返回值-单独查询</t>
-    <rPh sb="6" eb="7">
-      <t>duo</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/queryLimit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"name":"小明"
-    },
-    "dataType": "1"
+    "dataType": "1",
+    "dataDetail": "all"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -575,39 +943,35 @@
     "successful": 1,
     "data": [
         {
-            "tenantId": "12345678",
-            "tenantUserId": "123456",
-            "userId": 694516856941977600,
-            "name": "小明",
-            "mobileNo": "13366590175",
-            "certNo": "341222199303040000",
-            "email": "1234567@126.com",
-            "createTime": "2020-03-31 11:02:03",
-            "updateTime": "2020-03-31 11:02:03"
+            "tenantId": "1001",
+            "tenantUserId": "000115",
+            "userId": 699297352645222400,
+            "name": "张*",
+            "mobileNo": "098*6543",
+            "certNo": "1234*6789",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         },
         {
-            "tenantId": "12345678",
-            "tenantUserId": "668",
-            "userId": 694557597273694208,
-            "name": "小明",
-            "mobileNo": "13810342337",
-            "certNo": "399222199303040000",
-            "email": "5674321@126.com",
-            "createTime": "2020-03-31 13:43:55",
-            "updateTime": "2020-03-31 13:43:55"
+            "tenantId": "1001",
+            "tenantUserId": "000117",
+            "userId": 699302184693145600,
+            "name": "张*",
+            "mobileNo": "098*6543",
+            "certNo": "1234*6789",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         }
     ]
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>mobileNo存在多条返回值-单独查询</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"mobileNo":"13366590175"
+    <t>{
+    "tenantId": "1001",
+    "params": {"mobileNo":"09876543"
     },
     "dataType": "1"
 }</t>
@@ -620,42 +984,39 @@
     "successful": 1,
     "data": [
         {
-            "tenantId": "12345678",
-            "tenantUserId": "123456",
-            "userId": 694516856941977600,
-            "name": "小明",
-            "mobileNo": "13366590175",
-            "certNo": "341222199303040000",
-            "email": "1234567@126.com",
-            "createTime": "2020-03-31 11:02:03",
-            "updateTime": "2020-03-31 11:02:03"
+            "tenantId": "1001",
+            "tenantUserId": "000115",
+            "userId": 699297352645222400,
+            "name": "张飞",
+            "mobileNo": "09876543",
+            "certNo": "123456789",
+            "email": "3234567@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         },
         {
-            "tenantId": "12345678",
-            "tenantUserId": "669",
-            "userId": 694558254152032256,
-            "name": "小花",
-            "mobileNo": "13366590175",
-            "certNo": "399222199303040000",
-            "email": "5674321@126.com",
-            "createTime": "2020-03-31 13:46:32",
-            "updateTime": "2020-03-31 13:46:32"
+            "tenantId": "1001",
+            "tenantUserId": "000117",
+            "userId": 699302184693145600,
+            "name": "张飞",
+            "mobileNo": "09876543",
+            "certNo": "123456789",
+            "email": "3234567@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         }
     ]
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>email存在多条返回值-单独查询</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"email":"1234567@126.com"
+    <t xml:space="preserve">{
+    "tenantId": "1001",
+    "params": {"name": "张飞"
     },
-    "dataType": "1"
-}</t>
+    "dataType": "0"
+}
+</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -665,41 +1026,48 @@
     "successful": 1,
     "data": [
         {
-            "tenantId": "12345678",
-            "tenantUserId": "123456",
-            "userId": 694516856941977600,
-            "name": "小明",
-            "mobileNo": "13366590175",
-            "certNo": "341222199303040000",
-            "email": "1234567@126.com",
-            "createTime": "2020-03-31 11:02:03",
-            "updateTime": "2020-03-31 11:02:03"
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "李*",
+            "mobileNo": "155****6733",
+            "certNo": "5412**********0000",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         },
         {
-            "tenantId": "12345678",
-            "tenantUserId": "670",
-            "userId": 694559063858225152,
-            "name": "零零",
-            "mobileNo": "05588703",
-            "certNo": "0002199303040000",
-            "email": "1234567@126.com",
-            "createTime": "2020-03-31 13:49:45",
-            "updateTime": "2020-03-31 13:49:45"
+            "tenantId": "1001",
+            "tenantUserId": "000115",
+            "userId": 699297352645222400,
+            "name": "张*",
+            "mobileNo": "098*6543",
+            "certNo": "1234*6789",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        },
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000117",
+            "userId": 699302184693145600,
+            "name": "张*",
+            "mobileNo": "098*6543",
+            "certNo": "1234*6789",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         }
     ]
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>certNo存在多条返回值-单独查询</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"certNo":"341222199303040000"
+    <t>{
+    "tenantId": "1001",
+    "params": {"certNo":"123456789"
     },
-    "dataType": "1"
+    "dataType": "0"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -736,20 +1104,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>交集查询-都有结果</t>
-    <rPh sb="5" eb="6">
-      <t>dou'you</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>jie'guo</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"mobileNo":"05588703",
-    "email": "abc@126.com"
+    <t>{
+    "tenantId": "1001",
+    "params": {"mobileNo":"09876543",
+    "email": "3234567@126.com"
     },
     "dataType": "1"
 }</t>
@@ -762,69 +1120,29 @@
     "successful": 1,
     "data": [
         {
-            "tenantId": "12345678",
-            "tenantUserId": "671",
-            "userId": 694559579820531712,
-            "name": "小马",
-            "mobileNo": "05588703",
-            "certNo": "341222199303040000",
-            "email": "abc@126.com",
-            "createTime": "2020-03-31 13:51:48",
-            "updateTime": "2020-03-31 13:51:48"
+            "tenantId": "1001",
+            "tenantUserId": "000115",
+            "userId": 699297352645222400,
+            "name": "张飞",
+            "mobileNo": "09876543",
+            "certNo": "123456789",
+            "email": "3234567@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        },
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000117",
+            "userId": 699302184693145600,
+            "name": "张飞",
+            "mobileNo": "09876543",
+            "certNo": "123456789",
+            "email": "3234567@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         }
     ]
 }</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>交集查询-都没有结果</t>
-    <rPh sb="5" eb="6">
-      <t>dou'you</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>mei</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>jie'guo</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"mobileNo":"99988703",
-    "email": "qwe@126.com"
-    },
-    "dataType": "1"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>交集查询-有的存在结果，有的不存在</t>
-    <rPh sb="0" eb="1">
-      <t>jiao'ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cha'xun</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>you'de</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>cun'zai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jie'guo</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>you'de</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>bu'cu'an'zai</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>cun'zai</t>
-    </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -839,32 +1157,17 @@
   </si>
   <si>
     <t>{
-    "resCode": "USR2002",
-    "resMsg": "用户不存在",
-    "successful": 0
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>交集查询-某些参数为空</t>
-    <rPh sb="5" eb="6">
-      <t>mou'xie</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>can'shu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>kong</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"email": "1234567@126.com",
+    "tenantId": "1001",
+    "params": {"email":"3234567@126.com"
+    },
+    "dataType": "0"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
     "certNo": ""
     },
     "dataType": "1"
@@ -878,26 +1181,37 @@
     "successful": 1,
     "data": [
         {
-            "tenantId": "12345678",
-            "tenantUserId": "123456",
-            "userId": 694516856941977600,
-            "name": "小明",
-            "mobileNo": "13366590175",
-            "certNo": "341222199303040000",
-            "email": "1234567@126.com",
-            "createTime": "2020-03-31 11:02:03",
-            "updateTime": "2020-03-31 11:02:03"
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "李四",
+            "mobileNo": "15510556733",
+            "certNo": "541222199303040000",
+            "email": "3234567@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         },
         {
-            "tenantId": "12345678",
-            "tenantUserId": "670",
-            "userId": 694559063858225152,
-            "name": "零零",
-            "mobileNo": "05588703",
-            "certNo": "0002199303040000",
-            "email": "1234567@126.com",
-            "createTime": "2020-03-31 13:49:45",
-            "updateTime": "2020-03-31 13:49:45"
+            "tenantId": "1001",
+            "tenantUserId": "000115",
+            "userId": 699297352645222400,
+            "name": "张飞",
+            "mobileNo": "09876543",
+            "certNo": "123456789",
+            "email": "3234567@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        },
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000117",
+            "userId": 699302184693145600,
+            "name": "张飞",
+            "mobileNo": "09876543",
+            "certNo": "123456789",
+            "email": "3234567@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         }
     ]
 }</t>
@@ -905,8 +1219,8 @@
   </si>
   <si>
     <t>{
-    "tenantId": "12345678",
-    "params": {"email": "1234567@126.com"
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com"
     }
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -918,42 +1232,59 @@
     "successful": 1,
     "data": [
         {
-            "tenantId": "12345678",
-            "tenantUserId": "123456",
-            "userId": 694516856941977600,
-            "name": "小*",
-            "mobileNo": "133****0175",
-            "certNo": "3412**********0000",
-            "email": "1234***@126.com",
-            "createTime": "2020-03-31 11:02:03",
-            "updateTime": "2020-03-31 11:02:03"
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "李*",
+            "mobileNo": "155****6733",
+            "certNo": "5412**********0000",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         },
         {
-            "tenantId": "12345678",
-            "tenantUserId": "670",
-            "userId": 694559063858225152,
-            "name": "零*",
-            "mobileNo": "055*8703",
-            "certNo": "0002********0000",
-            "email": "1234***@126.com",
-            "createTime": "2020-03-31 13:49:45",
-            "updateTime": "2020-03-31 13:49:45"
+            "tenantId": "1001",
+            "tenantUserId": "000115",
+            "userId": 699297352645222400,
+            "name": "张*",
+            "mobileNo": "098*6543",
+            "certNo": "1234*6789",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        },
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000117",
+            "userId": 699302184693145600,
+            "name": "张*",
+            "mobileNo": "098*6543",
+            "certNo": "1234*6789",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         }
     ]
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>/queryLimit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"email": "1234567@126.com"
+    <t>{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com"
     },
     "dataType":"0",
     "dataDtail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"1"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -964,39 +1295,29 @@
     "successful": 1,
     "data": [
         {
-            "tenantId": "12345678",
-            "tenantUserId": "123456",
-            "userId": 694516856941977600,
-            "name": "小*",
-            "mobileNo": "133****0175",
-            "certNo": "3412**********0000",
-            "email": "1234***@126.com",
-            "createTime": "2020-03-31 11:02:03",
-            "updateTime": "2020-03-31 11:02:03"
-        },
-        {
-            "tenantId": "12345678",
-            "tenantUserId": "670",
-            "userId": 694559063858225152,
-            "name": "零*",
-            "mobileNo": "055*8703",
-            "certNo": "0002********0000",
-            "email": "1234***@126.com",
-            "createTime": "2020-03-31 13:49:45",
-            "updateTime": "2020-03-31 13:49:45"
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "李四",
+            "mobileNo": "15510556733",
+            "certNo": "541222199303040000",
+            "email": "3234567@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         }
     ]
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"email": "1234567@126.com",
-    "mobileNo":"13366590175"
+    <t xml:space="preserve">{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
     },
-    "dataType":""
-}</t>
+    "dataType":"2"
+}
+</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1006,50 +1327,30 @@
     "successful": 1,
     "data": [
         {
-            "tenantId": "12345678",
-            "tenantUserId": "123456",
-            "userId": 694516856941977600,
-            "name": "小*",
-            "mobileNo": "133****0175",
-            "certNo": "3412**********0000",
-            "email": "1234***@126.com",
-            "createTime": "2020-03-31 11:02:03",
-            "updateTime": "2020-03-31 11:02:03"
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "a4292d5e92be734194926548ec6e3cf6",
+            "mobileNo": "74108036c205aedb06337232d5a01f03",
+            "certNo": "d508ebd3c36b9297a99a7354e0ae4f74",
+            "email": "03065f0f961760adf3d79341ac1972e2",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         }
     ]
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"email": "1234567@126.com",
-    "mobileNo":"13366590175"
+    <t xml:space="preserve">
+{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
     },
-    "dataType":"0"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"email": "1234567@126.com",
-    "mobileNo":"13366590175"
-    },
-    "datatype":"0",
-    "dataDetail":"all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"email": "1234567@126.com",
-    "mobileNo":"13366590175"
-    },
-    "dataType":"0",
-    "dataDetail":"name,certNo"
-}</t>
+    "dataType":""
+}
+</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1059,63 +1360,38 @@
     "successful": 1,
     "data": [
         {
-            "tenantId": "12345678",
-            "tenantUserId": "123456",
-            "userId": 694516856941977600,
-            "name": "小*",
-            "certNo": "3412**********0000",
-            "createTime": "2020-03-31 11:02:03",
-            "updateTime": "2020-03-31 11:02:03"
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "李*",
+            "mobileNo": "155****6733",
+            "certNo": "5412**********0000",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         }
     ]
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>非必传参数-dataDetail创建时为空参数</t>
-    <rPh sb="16" eb="17">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>chuang'jian'shi</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>kong</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>can'shu</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "tenantId": "1001",
- "params": {"certNo":"12345"
-   },
-   "dataType":"0",
-   "dataDetail":"all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "USR2002",
-    "resMsg": "用户不存在",
-    "successful": 0
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"email": "1234567@126.com",
-    "mobileNo":"13366590175"
+    <t>{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
     },
-    "datatype":"0",
-    "dataDetail":"name11"
+    "dataType":"5"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"0"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1126,51 +1402,28 @@
     "successful": 1,
     "data": [
         {
-            "tenantId": "12345678",
-            "tenantUserId": "123456",
-            "userId": 694516856941977600,
-            "createTime": "2020-03-31 11:02:03",
-            "updateTime": "2020-03-31 11:02:03"
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "李*",
+            "mobileNo": "155****6733",
+            "certNo": "5412**********0000",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         }
     ]
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>非必传参数-dataDetail为dwewr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"email": "1234567@126.com",
-    "mobileNo":"13366590175"
+    <t>{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
     },
-    "datatype":"0",
-    "dataDetail":"dewer"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-必传参数-params为空</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0004",
-    "resMsg": "参数异常",
-    "successful": 0
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"email": "1234567@126.com",
-    "mobileNo":"13366590175"
-    },
-    "dataType":"2"
+    "dataType":"0",
+     "dataDetail":"all"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1181,213 +1434,113 @@
     "successful": 1,
     "data": [
         {
-            "tenantId": "12345678",
-            "tenantUserId": "123456",
-            "userId": 694516856941977600,
-            "name": "eb27d99eec334cd16d835bd36e06a119",
-            "mobileNo": "2e296b1e5917ced4ea123d82c14b4662",
-            "certNo": "2bb6fa304390f4ebdf1479372649b515",
-            "email": "a71249d4fe6f56f76de86b532ef74c1b",
-            "createTime": "2020-03-31 11:02:03",
-            "updateTime": "2020-03-31 11:02:03"
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "李*",
+            "mobileNo": "155****6733",
+            "certNo": "5412**********0000",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         }
     ]
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"email": "1234567@126.com"},
-    "dataType": "1"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"email": "1234567@126.com",
-    "mobileNo":"13366590175"
-    },
-    "dataType":"5"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "",
-    "params": {"email": "1234567@126.com",
-    "mobileNo":"13366590175"
-    },
-    "dataType":"1"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.queryLimit(***.web.request.QueryUserInfoByConditionReq): [Field error in object 'queryUserInfoByConditionReq' on field 'tenantId': rejected value []; codes [NotEmpty.queryUserInfoByConditionReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [queryUserInfoByConditionReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "tenantId":"consume",
- "params":{
-         },
- "dataType":"1",
- "datadetail":" name"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "params":{
-        "name":"",
-        "mobileNo":"13366590175",
-        "certNo":"",
-        "email":""
-         },
- "dataType":"1",
- "datadetail":" name"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.queryLimit(***.web.request.QueryUserInfoByConditionReq): [Field error in object 'queryUserInfoByConditionReq' on field 'tenantId': rejected value [null]; codes [NotEmpty.queryUserInfoByConditionReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [queryUserInfoByConditionReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "tenantId":"consume",
- "dataType":"1",
- "datadetail":" name"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.queryLimit(***.web.request.QueryUserInfoByConditionReq): [Field error in object 'queryUserInfoByConditionReq' on field 'params': rejected value [null]; codes [NotNull.queryUserInfoByConditionReq.params,NotNull.params,NotNull.***.service.dto.UserDto,NotNull]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [queryUserInfoByConditionReq.params,params]; arguments []; default message [params]]; default message [用户信息参数不允许为空]] "
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 {
-    "tenantId": "12345678",
-    "params": {"email": "1234567@126.com",
-    "mobileNo":"13366590175"
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
     },
-    "dataType":"1"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>userQueryLimit-001</t>
+    "dataType":"0",
+    "dataDetail":"name,certNo"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "李*",
+            "certNo": "5412**********0000",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"0",
+     "dataDetail":"dewer"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item values (100353683351,"699302184693145600","1001","000117","name","张*","nT13aoeQcFo=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683361,"699302184693145600","1001","000117","mobileNo","098*6543","/nTfWbdOOoCKU4JOcCMeIQ==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683371,"699302184693145600","1001","000117","certNo","1234*6789","/RvAvK5TAdZ8n7EFJpj7Gw==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683381,"699302184693145600","1001","000117","email","3234***@126.com","/1x14CMZmuuTF9l2WwG6lw==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699302184693145600","1001","000117",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViSU1GMU9HTFNmZGI4SzFZNXMvU3JmamdhblhPS3RCYzJBQUFBQUFBQUFBRHdGT0wrTngyZjZqR1o3ZUZaV3FscGRDUmJYQTJtTFZVQzZxYzFzQjZ3Vm1vS0UrcDh5L0MzSE1IVzBlL3ZOYTRsNitzUDFBRm4rYmNRcTludjFoZ3JPZlAxVGZJVitxWGdyaWVtVlpiNkg3TkM3OUFZYUU5MWdNMWJnZC85Y0pGVVd1ekNYVy9keXVKOUtmcEw0c00rNStsVkVKSVJZaEtCTXhUYStMblAxVThJcUQ1dVpLKzUxczQ4MTdVR2pWa2dNU3hya3dBaWdnbS9USkEwWUN2TjhKMUV3L2U3QkpQZHo3MlRnNmJRWndGS1lFeXNXdXdjVU5qaDV4NDRNZitHTjlaQ3BqVGs5Z0UxaGRvZVk0RFNvWEtkTGVjVUZHVExkL1N3NmJseTZvZjlDK1hJTU9NWVFwMFl1bndzc2JRN1RmQlpFQ0xOUXBiMUMwcVZ6ckNNNVh2dlNSVUdPOUthVVhFY2NCa0xhUkVsYWRJR0V6ZXYzenJJdEdBaWdQNGtjUTEzaGwzSllnOERubDhsb0NFbW9Samc0YWVkTmdDNHU3Y1g4SFFpUE9JQVVCNnZMMHNIWFdKTW90Ui9ENExWU29lT1lYdDdPMDBoQWx1RlNHdis4ZmNGV1kwemRTcz0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699302184693145600","1001","000117","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_info_item values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>userQueryLimit-002</t>
-  </si>
-  <si>
-    <t>userQueryLimit-003</t>
-  </si>
-  <si>
-    <t>userQueryLimit-004</t>
-  </si>
-  <si>
-    <t>userQueryLimit-005</t>
-  </si>
-  <si>
-    <t>userQueryLimit-006</t>
-  </si>
-  <si>
-    <t>userQueryLimit-007</t>
-  </si>
-  <si>
-    <t>userQueryLimit-008</t>
-  </si>
-  <si>
-    <t>userQueryLimit-009</t>
-  </si>
-  <si>
-    <t>userQueryLimit-010</t>
-  </si>
-  <si>
-    <t>userQueryLimit-011</t>
-  </si>
-  <si>
-    <t>userQueryLimit-012</t>
-  </si>
-  <si>
-    <t>userQueryLimit-013</t>
-  </si>
-  <si>
-    <t>userQueryLimit-014</t>
-  </si>
-  <si>
-    <t>userQueryLimit-015</t>
-  </si>
-  <si>
-    <t>userQueryLimit-016</t>
-  </si>
-  <si>
-    <t>userQueryLimit-017</t>
-  </si>
-  <si>
-    <t>userQueryLimit-018</t>
-  </si>
-  <si>
-    <t>userQueryLimit-019</t>
-  </si>
-  <si>
-    <t>userQueryLimit-020</t>
-  </si>
-  <si>
-    <t>userQueryLimit-021</t>
-  </si>
-  <si>
-    <t>userQueryLimit-022</t>
-  </si>
-  <si>
-    <t>userQueryLimit-023</t>
-  </si>
-  <si>
-    <t>userQueryLimit-024</t>
-  </si>
-  <si>
-    <t>userQueryLimit-025</t>
-  </si>
-  <si>
-    <t>userQueryLimit-026</t>
-  </si>
-  <si>
-    <t>userQueryLimit-027</t>
-  </si>
-  <si>
-    <t>userQueryLimit-028</t>
-  </si>
-  <si>
-    <t>userQueryLimit-029</t>
-  </si>
-  <si>
-    <t>userQueryLimit-030</t>
-  </si>
-  <si>
-    <t>userQueryLimit-031</t>
-  </si>
-  <si>
-    <t>userQueryLimit-032</t>
+    <t>delete from user_basic_info where tenant_user_id =000117  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000117 and tenant_id = 1001;
+delete from user_index where tenant_user_id =000117 and tenant_id = 1001;
+delete from user_request_serial where tenant_id = 1001;
+delete from user_basic_info where tenant_user_id =000115  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1458,7 +1611,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1483,6 +1636,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1502,7 +1661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1589,6 +1748,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1876,8 +2041,8 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1956,15 +2121,19 @@
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="F2" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>146</v>
+      </c>
       <c r="H2" s="10" t="s">
         <v>17</v>
       </c>
@@ -1975,11 +2144,11 @@
         <v>14</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="20" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="N2" s="16"/>
       <c r="O2" s="12"/>
@@ -1989,10 +2158,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -2008,11 +2177,11 @@
         <v>14</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="20" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="N3" s="16"/>
       <c r="O3" s="12"/>
@@ -2022,10 +2191,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -2035,17 +2204,17 @@
         <v>17</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="L4" s="18"/>
       <c r="M4" s="20" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="N4" s="16"/>
       <c r="O4" s="12"/>
@@ -2055,10 +2224,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -2068,17 +2237,17 @@
         <v>17</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J5" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="L5" s="18"/>
       <c r="M5" s="20" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="12"/>
@@ -2088,10 +2257,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -2101,17 +2270,17 @@
         <v>17</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J6" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L6" s="28"/>
       <c r="M6" s="29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N6" s="16"/>
       <c r="O6" s="12"/>
@@ -2121,10 +2290,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -2134,13 +2303,13 @@
         <v>17</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="L7" s="28"/>
       <c r="M7" s="29" t="s">
@@ -2154,10 +2323,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -2173,7 +2342,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L8" s="28"/>
       <c r="M8" s="29" t="s">
@@ -2187,10 +2356,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -2200,17 +2369,17 @@
         <v>17</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J9" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="12"/>
@@ -2220,10 +2389,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -2233,17 +2402,17 @@
         <v>17</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="29" t="s">
-        <v>55</v>
+      <c r="K10" s="31" t="s">
+        <v>117</v>
       </c>
       <c r="L10" s="28"/>
       <c r="M10" s="29" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="N10" s="16"/>
       <c r="O10" s="12"/>
@@ -2253,10 +2422,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -2266,17 +2435,17 @@
         <v>17</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J11" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="L11" s="28"/>
       <c r="M11" s="29" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="12"/>
@@ -2286,10 +2455,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -2299,17 +2468,17 @@
         <v>17</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J12" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="L12" s="28"/>
       <c r="M12" s="29" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="N12" s="16"/>
       <c r="O12" s="12"/>
@@ -2319,10 +2488,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -2332,30 +2501,30 @@
         <v>17</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J13" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="L13" s="28"/>
       <c r="M13" s="29" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" spans="1:16" s="13" customFormat="1" ht="367.5">
+    <row r="14" spans="1:16" s="13" customFormat="1" ht="409.5">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -2371,11 +2540,11 @@
         <v>14</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="L14" s="28"/>
       <c r="M14" s="29" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="12"/>
@@ -2385,10 +2554,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -2404,7 +2573,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="L15" s="28"/>
       <c r="M15" s="29" t="s">
@@ -2418,10 +2587,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -2437,11 +2606,11 @@
         <v>14</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="29" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="12"/>
@@ -2451,10 +2620,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
@@ -2470,21 +2639,21 @@
         <v>14</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="L17" s="28"/>
       <c r="M17" s="29" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="N17" s="14"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="1:15" s="13" customFormat="1" ht="406">
+    <row r="18" spans="1:15" s="13" customFormat="1" ht="409.5">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>22</v>
@@ -2503,21 +2672,21 @@
         <v>14</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="20" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="1:15" s="13" customFormat="1" ht="406">
+    <row r="19" spans="1:15" s="13" customFormat="1" ht="409.5">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>23</v>
@@ -2530,17 +2699,17 @@
         <v>17</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J19" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="20" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="12"/>
@@ -2550,7 +2719,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>24</v>
@@ -2569,11 +2738,11 @@
         <v>14</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="22" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="12"/>
@@ -2583,7 +2752,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>25</v>
@@ -2596,17 +2765,17 @@
         <v>17</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J21" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="L21" s="18"/>
       <c r="M21" s="22" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="12"/>
@@ -2616,7 +2785,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>26</v>
@@ -2629,17 +2798,17 @@
         <v>17</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J22" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="L22" s="18"/>
       <c r="M22" s="22" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="N22" s="14"/>
       <c r="O22" s="12"/>
@@ -2649,7 +2818,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>27</v>
@@ -2662,13 +2831,13 @@
         <v>17</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J23" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="L23" s="18"/>
       <c r="M23" s="22" t="s">
@@ -2682,7 +2851,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>28</v>
@@ -2695,17 +2864,17 @@
         <v>17</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J24" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="L24" s="18"/>
       <c r="M24" s="20" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="N24" s="16"/>
       <c r="O24" s="12"/>
@@ -2715,7 +2884,7 @@
         <v>13</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>29</v>
@@ -2728,17 +2897,17 @@
         <v>17</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J25" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="L25" s="18"/>
       <c r="M25" s="20" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="N25" s="11"/>
     </row>
@@ -2747,7 +2916,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>30</v>
@@ -2760,17 +2929,17 @@
         <v>17</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J26" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="L26" s="18"/>
       <c r="M26" s="20" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="N26" s="11"/>
     </row>
@@ -2779,10 +2948,10 @@
         <v>13</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -2792,17 +2961,17 @@
         <v>17</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J27" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="L27" s="18"/>
       <c r="M27" s="22" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="N27" s="11"/>
     </row>
@@ -2811,7 +2980,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>31</v>
@@ -2824,17 +2993,17 @@
         <v>17</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J28" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="L28" s="18"/>
       <c r="M28" s="22" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="N28" s="11"/>
     </row>
@@ -2843,10 +3012,10 @@
         <v>13</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
@@ -2856,17 +3025,17 @@
         <v>17</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J29" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="L29" s="28"/>
       <c r="M29" s="29" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="N29" s="9"/>
     </row>
@@ -2875,7 +3044,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>32</v>
@@ -2888,17 +3057,17 @@
         <v>17</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J30" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="L30" s="18"/>
       <c r="M30" s="26" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="N30" s="9"/>
     </row>
@@ -2907,10 +3076,10 @@
         <v>13</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
@@ -2920,17 +3089,17 @@
         <v>17</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J31" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="L31" s="18"/>
       <c r="M31" s="26" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="N31" s="9"/>
     </row>
@@ -2939,7 +3108,7 @@
         <v>13</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>15</v>
@@ -2952,17 +3121,17 @@
         <v>17</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J32" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="L32" s="25"/>
       <c r="M32" s="26" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="N32" s="9"/>
     </row>
@@ -2971,7 +3140,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>16</v>
@@ -2984,17 +3153,17 @@
         <v>17</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J33" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="L33" s="25"/>
       <c r="M33" s="26" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="N33" s="9"/>
     </row>

--- a/target/classes/caseconf/userQueryLimit/Case_userQueryLimit.xlsx
+++ b/target/classes/caseconf/userQueryLimit/Case_userQueryLimit.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform1111/src/main/resources/caseconf/userQueryLimit/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="9230"/>
+    <workbookView xWindow="-5100" yWindow="-23100" windowWidth="45120" windowHeight="19820"/>
   </bookViews>
   <sheets>
     <sheet name="userQueryLimit" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +35,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="155">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -430,16 +441,6 @@
   </si>
   <si>
     <t>{
-    "tenantId": "12345678",
-    "params": {"name": "电脑",
-    "mobileNo": "13366590175"
-    },
-    "dataType": "1"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
     "resCode": "USR2002",
     "resMsg": "用户不存在",
     "successful": 0
@@ -461,16 +462,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"mobileNo": "13366590175",
-     "certNo": "0000"
-    },
-    "dataType": "1"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>email不存在</t>
     <rPh sb="5" eb="6">
       <t>bu'cun'zai</t>
@@ -478,16 +469,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"mobileNo": "13366590175",
-     "email": "qwertyuiop"
-    },
-    "dataType": "1"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>name存在多条返回值-单独查询</t>
     <rPh sb="6" eb="7">
       <t>duo</t>
@@ -531,16 +512,6 @@
     <rPh sb="8" eb="9">
       <t>jie'guo</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"mobileNo":"99988703",
-    "email": "qwe@126.com"
-    },
-    "dataType": "1"
-}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -633,34 +604,6 @@
     "resCode": "USR2002",
     "resMsg": "用户不存在",
     "successful": 0
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"email": "1234567@126.com",
-    "mobileNo":"13366590175"
-    },
-    "datatype":"0",
-    "dataDetail":"name11"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "12345678",
-            "tenantUserId": "123456",
-            "userId": 694516856941977600,
-            "createTime": "2020-03-31 11:02:03",
-            "updateTime": "2020-03-31 11:02:03"
-        }
-    ]
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -788,9 +731,6 @@
   </si>
   <si>
     <t>userQueryLimit-013</t>
-  </si>
-  <si>
-    <t>userQueryLimit-014</t>
   </si>
   <si>
     <t>userQueryLimit-015</t>
@@ -869,16 +809,6 @@
   </si>
   <si>
     <t>{
-    "tenantId": "1001",
-    "params": {"mobileNo": "15510556733"
-    },
-    "dataType": "1",
-    "dataDetail": "all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
     "resCode": "E0000",
     "resMsg": "成功",
     "successful": 1,
@@ -918,53 +848,11 @@
   </si>
   <si>
     <t>{
-    "tenantId": "12345678",
-    "params": {"mobileNo": "9876543",
-     "certNo": "341222199303040000"
-    },
-    "dataType": "1"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
     "tenantId": "1001",
     "params": {"name": "李四"
     },
     "dataType": "1",
     "dataDetail": "all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000115",
-            "userId": 699297352645222400,
-            "name": "张*",
-            "mobileNo": "098*6543",
-            "certNo": "1234*6789",
-            "email": "3234***@126.com",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        },
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000117",
-            "userId": 699302184693145600,
-            "name": "张*",
-            "mobileNo": "098*6543",
-            "certNo": "1234*6789",
-            "email": "3234***@126.com",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        }
-    ]
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1115,6 +1003,290 @@
   </si>
   <si>
     <t>{
+    "tenantId": "1001",
+    "params": {"email":"3234567@126.com"
+    },
+    "dataType": "0"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "certNo": ""
+    },
+    "dataType": "1"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com"
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com"
+    },
+    "dataType":"0",
+    "dataDtail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "李四",
+            "mobileNo": "15510556733",
+            "certNo": "541222199303040000",
+            "email": "3234567@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "a4292d5e92be734194926548ec6e3cf6",
+            "mobileNo": "74108036c205aedb06337232d5a01f03",
+            "certNo": "d508ebd3c36b9297a99a7354e0ae4f74",
+            "email": "03065f0f961760adf3d79341ac1972e2",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":""
+}
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "李*",
+            "mobileNo": "155****6733",
+            "certNo": "5412**********0000",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"5"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"0"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"0",
+     "dataDetail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "李*",
+            "mobileNo": "155****6733",
+            "certNo": "5412**********0000",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "李*",
+            "certNo": "5412**********0000",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"0",
+     "dataDetail":"dewer"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683351,"699302184693145600","1001","000117","name","张*","nT13aoeQcFo=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683361,"699302184693145600","1001","000117","mobileNo","098*6543","/nTfWbdOOoCKU4JOcCMeIQ==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683371,"699302184693145600","1001","000117","certNo","1234*6789","/RvAvK5TAdZ8n7EFJpj7Gw==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683381,"699302184693145600","1001","000117","email","3234***@126.com","/1x14CMZmuuTF9l2WwG6lw==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699302184693145600","1001","000117",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViSU1GMU9HTFNmZGI4SzFZNXMvU3JmamdhblhPS3RCYzJBQUFBQUFBQUFBRHdGT0wrTngyZjZqR1o3ZUZaV3FscGRDUmJYQTJtTFZVQzZxYzFzQjZ3Vm1vS0UrcDh5L0MzSE1IVzBlL3ZOYTRsNitzUDFBRm4rYmNRcTludjFoZ3JPZlAxVGZJVitxWGdyaWVtVlpiNkg3TkM3OUFZYUU5MWdNMWJnZC85Y0pGVVd1ekNYVy9keXVKOUtmcEw0c00rNStsVkVKSVJZaEtCTXhUYStMblAxVThJcUQ1dVpLKzUxczQ4MTdVR2pWa2dNU3hya3dBaWdnbS9USkEwWUN2TjhKMUV3L2U3QkpQZHo3MlRnNmJRWndGS1lFeXNXdXdjVU5qaDV4NDRNZitHTjlaQ3BqVGs5Z0UxaGRvZVk0RFNvWEtkTGVjVUZHVExkL1N3NmJseTZvZjlDK1hJTU9NWVFwMFl1bndzc2JRN1RmQlpFQ0xOUXBiMUMwcVZ6ckNNNVh2dlNSVUdPOUthVVhFY2NCa0xhUkVsYWRJR0V6ZXYzenJJdEdBaWdQNGtjUTEzaGwzSllnOERubDhsb0NFbW9Samc0YWVkTmdDNHU3Y1g4SFFpUE9JQVVCNnZMMHNIWFdKTW90Ui9ENExWU29lT1lYdDdPMDBoQWx1RlNHdis4ZmNGV1kwemRTcz0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699302184693145600","1001","000117","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id ="000117"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000117" and tenant_id = "1001";
+delete from user_index where tenant_user_id ="000117" and tenant_id = "1001";
+delete from user_request_serial where tenant_id = "1001";
+delete from user_basic_info where tenant_user_id ="000115"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000115" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000115" and tenant_id = "1001";
+delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"mobileNo": "9876543"
+    },
+    "dataType": "1"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"name": "电脑"
+    },
+    "dataType": "1"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {
+     "certNo": "0000"
+    },
+    "dataType": "1"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {
+     "email": "qwertyuiop"
+    },
+    "dataType": "1"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
     "resCode": "E0000",
     "resMsg": "成功",
     "successful": 1,
@@ -1123,10 +1295,10 @@
             "tenantId": "1001",
             "tenantUserId": "000115",
             "userId": 699297352645222400,
-            "name": "张飞",
-            "mobileNo": "09876543",
-            "certNo": "123456789",
-            "email": "3234567@126.com",
+            "name": "张*",
+            "mobileNo": "098*6543",
+            "certNo": "1234*6789",
+            "email": "3234***@126.com",
             "createTime": "2020-03-28 21:49:59",
             "updateTime": "2020-03-28 21:49:59"
         },
@@ -1134,10 +1306,10 @@
             "tenantId": "1001",
             "tenantUserId": "000117",
             "userId": 699302184693145600,
-            "name": "张飞",
-            "mobileNo": "09876543",
-            "certNo": "123456789",
-            "email": "3234567@126.com",
+            "name": "张*",
+            "mobileNo": "098*6543",
+            "certNo": "1234*6789",
+            "email": "3234***@126.com",
             "createTime": "2020-03-28 21:49:59",
             "updateTime": "2020-03-28 21:49:59"
         }
@@ -1146,29 +1318,46 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683351,"699302184693145600","1001","000117","name","张*","nT13aoeQcFo=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683361,"699302184693145600","1001","000117","mobileNo","098*6543","/nTfWbdOOoCKU4JOcCMeIQ==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683371,"699302184693145600","1001","000117","certNo","1234*6789","/RvAvK5TAdZ8n7EFJpj7Gw==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683381,"699302184693145600","1001","000117","email","3234***@126.com","/1x14CMZmuuTF9l2WwG6lw==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699302184693145600","1001","000117",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViSU1GMU9HTFNmZGI4SzFZNXMvU3JmamdhblhPS3RCYzJBQUFBQUFBQUFBRHdGT0wrTngyZjZqR1o3ZUZaV3FscGRDUmJYQTJtTFZVQzZxYzFzQjZ3Vm1vS0UrcDh5L0MzSE1IVzBlL3ZOYTRsNitzUDFBRm4rYmNRcTludjFoZ3JPZlAxVGZJVitxWGdyaWVtVlpiNkg3TkM3OUFZYUU5MWdNMWJnZC85Y0pGVVd1ekNYVy9keXVKOUtmcEw0c00rNStsVkVKSVJZaEtCTXhUYStMblAxVThJcUQ1dVpLKzUxczQ4MTdVR2pWa2dNU3hya3dBaWdnbS9USkEwWUN2TjhKMUV3L2U3QkpQZHo3MlRnNmJRWndGS1lFeXNXdXdjVU5qaDV4NDRNZitHTjlaQ3BqVGs5Z0UxaGRvZVk0RFNvWEtkTGVjVUZHVExkL1N3NmJseTZvZjlDK1hJTU9NWVFwMFl1bndzc2JRN1RmQlpFQ0xOUXBiMUMwcVZ6ckNNNVh2dlNSVUdPOUthVVhFY2NCa0xhUkVsYWRJR0V6ZXYzenJJdEdBaWdQNGtjUTEzaGwzSllnOERubDhsb0NFbW9Samc0YWVkTmdDNHU3Y1g4SFFpUE9JQVVCNnZMMHNIWFdKTW90Ui9ENExWU29lT1lYdDdPMDBoQWx1RlNHdis4ZmNGV1kwemRTcz0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699302184693145600","1001","000117","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id ="000117"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000117" and tenant_id = "1001";
+delete from user_index where tenant_user_id ="000117" and tenant_id = "1001";
+delete from user_request_serial where tenant_id = "1001";
+delete from user_basic_info where tenant_user_id ="000115"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000115" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000115" and tenant_id = "1001";</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"mobileNo": "15510556733"
+    },
+    "dataType": "1",
+    "dataDetail": "all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>{
     "tenantId": "12345678",
-    "params": {"mobileNo":"05588703",
+    "params": {"mobileNo":"15510556733",
     "email": "qwe@126.com"
-    },
-    "dataType": "1"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "1001",
-    "params": {"email":"3234567@126.com"
-    },
-    "dataType": "0"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "certNo": ""
     },
     "dataType": "1"
 }</t>
@@ -1219,14 +1408,6 @@
   </si>
   <si>
     <t>{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com"
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
     "resCode": "E0000",
     "resMsg": "成功",
     "successful": 1,
@@ -1270,26 +1451,6 @@
   </si>
   <si>
     <t>{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com"
-    },
-    "dataType":"0",
-    "dataDtail":"all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":"1"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
     "resCode": "E0000",
     "resMsg": "成功",
     "successful": 1,
@@ -1298,16 +1459,55 @@
             "tenantId": "1001",
             "tenantUserId": "000113",
             "userId": 699222007535509504,
-            "name": "李四",
-            "mobileNo": "15510556733",
-            "certNo": "541222199303040000",
-            "email": "3234567@126.com",
+            "name": "李*",
+            "mobileNo": "155****6733",
+            "certNo": "5412**********0000",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        },
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000115",
+            "userId": 699297352645222400,
+            "name": "张*",
+            "mobileNo": "098*6543",
+            "certNo": "1234*6789",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        },
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000117",
+            "userId": 699302184693145600,
+            "name": "张*",
+            "mobileNo": "098*6543",
+            "certNo": "1234*6789",
+            "email": "3234***@126.com",
             "createTime": "2020-03-28 21:49:59",
             "updateTime": "2020-03-28 21:49:59"
         }
     ]
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"1"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -1316,39 +1516,6 @@
     "mobileNo":"15510556733"
     },
     "dataType":"2"
-}
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000113",
-            "userId": 699222007535509504,
-            "name": "a4292d5e92be734194926548ec6e3cf6",
-            "mobileNo": "74108036c205aedb06337232d5a01f03",
-            "certNo": "d508ebd3c36b9297a99a7354e0ae4f74",
-            "email": "03065f0f961760adf3d79341ac1972e2",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":""
 }
 </t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1375,80 +1542,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":"5"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":"0"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000113",
-            "userId": 699222007535509504,
-            "name": "李*",
-            "mobileNo": "155****6733",
-            "certNo": "5412**********0000",
-            "email": "3234***@126.com",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":"0",
-     "dataDetail":"all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000113",
-            "userId": 699222007535509504,
-            "name": "李*",
-            "mobileNo": "155****6733",
-            "certNo": "5412**********0000",
-            "email": "3234***@126.com",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 {
     "tenantId": "1001",
@@ -1461,35 +1554,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000113",
-            "userId": 699222007535509504,
-            "name": "李*",
-            "certNo": "5412**********0000",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
-{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":"0",
-     "dataDetail":"dewer"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1509,45 +1581,49 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item values (100353683351,"699302184693145600","1001","000117","name","张*","nT13aoeQcFo=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683361,"699302184693145600","1001","000117","mobileNo","098*6543","/nTfWbdOOoCKU4JOcCMeIQ==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683371,"699302184693145600","1001","000117","certNo","1234*6789","/RvAvK5TAdZ8n7EFJpj7Gw==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683381,"699302184693145600","1001","000117","email","3234***@126.com","/1x14CMZmuuTF9l2WwG6lw==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699302184693145600","1001","000117",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViSU1GMU9HTFNmZGI4SzFZNXMvU3JmamdhblhPS3RCYzJBQUFBQUFBQUFBRHdGT0wrTngyZjZqR1o3ZUZaV3FscGRDUmJYQTJtTFZVQzZxYzFzQjZ3Vm1vS0UrcDh5L0MzSE1IVzBlL3ZOYTRsNitzUDFBRm4rYmNRcTludjFoZ3JPZlAxVGZJVitxWGdyaWVtVlpiNkg3TkM3OUFZYUU5MWdNMWJnZC85Y0pGVVd1ekNYVy9keXVKOUtmcEw0c00rNStsVkVKSVJZaEtCTXhUYStMblAxVThJcUQ1dVpLKzUxczQ4MTdVR2pWa2dNU3hya3dBaWdnbS9USkEwWUN2TjhKMUV3L2U3QkpQZHo3MlRnNmJRWndGS1lFeXNXdXdjVU5qaDV4NDRNZitHTjlaQ3BqVGs5Z0UxaGRvZVk0RFNvWEtkTGVjVUZHVExkL1N3NmJseTZvZjlDK1hJTU9NWVFwMFl1bndzc2JRN1RmQlpFQ0xOUXBiMUMwcVZ6ckNNNVh2dlNSVUdPOUthVVhFY2NCa0xhUkVsYWRJR0V6ZXYzenJJdEdBaWdQNGtjUTEzaGwzSllnOERubDhsb0NFbW9Samc0YWVkTmdDNHU3Y1g4SFFpUE9JQVVCNnZMMHNIWFdKTW90Ui9ENExWU29lT1lYdDdPMDBoQWx1RlNHdis4ZmNGV1kwemRTcz0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699302184693145600","1001","000117","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into user_info_item values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
+    <t>{
+    "tenantId": "1001",
+    "params": {"mobileNo":"99988703",
+    "email": "qwe@126.com"
+    },
+    "dataType": "1"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>userQueryLimit-014</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>delete from user_basic_info where tenant_user_id =000117  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000117 and tenant_id = 1001;
-delete from user_index where tenant_user_id =000117 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;
-delete from user_basic_info where tenant_user_id =000115  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t xml:space="preserve">
+{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"0",
+     "dataDetail":"name11"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2040,33 +2116,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.08203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="1.08203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="2.58203125" style="8" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="32" style="8" customWidth="1"/>
-    <col min="8" max="8" width="31.9140625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="15" customWidth="1"/>
-    <col min="11" max="11" width="43.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.4140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="42.75" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="1" style="8" customWidth="1"/>
+    <col min="5" max="5" width="2.5" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="91" style="8" customWidth="1"/>
+    <col min="7" max="7" width="82.1640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" style="15" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
     <col min="14" max="14" width="25.83203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="15.08203125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="65.9140625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="15" style="8" customWidth="1"/>
+    <col min="16" max="16" width="65.83203125" style="5" customWidth="1"/>
     <col min="17" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" customHeight="1">
+    <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2116,12 +2192,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="13" customFormat="1" ht="118.5" customHeight="1">
+    <row r="2" spans="1:16" s="13" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>34</v>
@@ -2129,10 +2205,10 @@
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="30" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>17</v>
@@ -2144,29 +2220,33 @@
         <v>14</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="N2" s="16"/>
       <c r="O2" s="12"/>
     </row>
-    <row r="3" spans="1:16" s="13" customFormat="1" ht="123" customHeight="1">
+    <row r="3" spans="1:16" s="13" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="F3" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>129</v>
+      </c>
       <c r="H3" s="10" t="s">
         <v>17</v>
       </c>
@@ -2177,29 +2257,33 @@
         <v>14</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="20" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="N3" s="16"/>
       <c r="O3" s="12"/>
     </row>
-    <row r="4" spans="1:16" s="13" customFormat="1" ht="148.5" customHeight="1">
+    <row r="4" spans="1:16" s="13" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="F4" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>129</v>
+      </c>
       <c r="H4" s="10" t="s">
         <v>17</v>
       </c>
@@ -2210,29 +2294,33 @@
         <v>14</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L4" s="18"/>
       <c r="M4" s="20" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="N4" s="16"/>
       <c r="O4" s="12"/>
     </row>
-    <row r="5" spans="1:16" s="13" customFormat="1" ht="191.5" customHeight="1">
+    <row r="5" spans="1:16" s="13" customFormat="1" ht="191.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="F5" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>129</v>
+      </c>
       <c r="H5" s="10" t="s">
         <v>17</v>
       </c>
@@ -2243,21 +2331,21 @@
         <v>14</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="L5" s="18"/>
       <c r="M5" s="20" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="12"/>
     </row>
-    <row r="6" spans="1:16" s="13" customFormat="1" ht="128" customHeight="1">
+    <row r="6" spans="1:16" s="13" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>40</v>
@@ -2276,24 +2364,24 @@
         <v>14</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="L6" s="28"/>
       <c r="M6" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N6" s="16"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:16" s="13" customFormat="1" ht="96.5" customHeight="1">
+    <row r="7" spans="1:16" s="13" customFormat="1" ht="96.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -2309,7 +2397,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="L7" s="28"/>
       <c r="M7" s="29" t="s">
@@ -2318,15 +2406,15 @@
       <c r="N7" s="16"/>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:16" s="13" customFormat="1" ht="100.5" customHeight="1">
+    <row r="8" spans="1:16" s="13" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -2342,7 +2430,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="L8" s="28"/>
       <c r="M8" s="29" t="s">
@@ -2351,15 +2439,15 @@
       <c r="N8" s="16"/>
       <c r="O8" s="12"/>
     </row>
-    <row r="9" spans="1:16" s="13" customFormat="1" ht="156.5" customHeight="1">
+    <row r="9" spans="1:16" s="13" customFormat="1" ht="156.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -2375,161 +2463,181 @@
         <v>14</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="12"/>
     </row>
-    <row r="10" spans="1:16" s="13" customFormat="1" ht="111" customHeight="1">
+    <row r="10" spans="1:16" s="13" customFormat="1" ht="291" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="F10" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>136</v>
+      </c>
       <c r="H10" s="10" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J10" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="L10" s="28"/>
       <c r="M10" s="29" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="N10" s="16"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="409.5">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="F11" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>136</v>
+      </c>
       <c r="H11" s="10" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J11" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="L11" s="28"/>
       <c r="M11" s="29" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="1:16" s="13" customFormat="1" ht="161.5" customHeight="1">
+    <row r="12" spans="1:16" s="13" customFormat="1" ht="161.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="F12" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>136</v>
+      </c>
       <c r="H12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J12" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="L12" s="28"/>
       <c r="M12" s="29" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="N12" s="16"/>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" spans="1:16" s="13" customFormat="1" ht="154.5" customHeight="1">
+    <row r="13" spans="1:16" s="13" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="F13" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>136</v>
+      </c>
       <c r="H13" s="10" t="s">
         <v>17</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J13" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="L13" s="28"/>
       <c r="M13" s="29" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" spans="1:16" s="13" customFormat="1" ht="409.5">
+    <row r="14" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="F14" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>136</v>
+      </c>
       <c r="H14" s="10" t="s">
         <v>17</v>
       </c>
@@ -2540,24 +2648,24 @@
         <v>14</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="L14" s="28"/>
       <c r="M14" s="29" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:16" s="13" customFormat="1" ht="122.5">
+    <row r="15" spans="1:16" s="13" customFormat="1" ht="126" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -2573,7 +2681,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="L15" s="28"/>
       <c r="M15" s="29" t="s">
@@ -2582,20 +2690,24 @@
       <c r="N15" s="14"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:16" s="13" customFormat="1" ht="122.5">
+    <row r="16" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="F16" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>129</v>
+      </c>
       <c r="H16" s="10" t="s">
         <v>17</v>
       </c>
@@ -2606,29 +2718,33 @@
         <v>14</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:15" s="13" customFormat="1" ht="409.5">
+    <row r="17" spans="1:15" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="F17" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>127</v>
+      </c>
       <c r="H17" s="10" t="s">
         <v>17</v>
       </c>
@@ -2639,29 +2755,33 @@
         <v>14</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="L17" s="28"/>
       <c r="M17" s="29" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="N17" s="14"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="1:15" s="13" customFormat="1" ht="409.5">
+    <row r="18" spans="1:15" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="F18" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>127</v>
+      </c>
       <c r="H18" s="10" t="s">
         <v>17</v>
       </c>
@@ -2672,62 +2792,70 @@
         <v>14</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="20" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="1:15" s="13" customFormat="1" ht="409.5">
+    <row r="19" spans="1:15" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="F19" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>127</v>
+      </c>
       <c r="H19" s="10" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J19" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="20" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="1:15" s="13" customFormat="1" ht="252">
+    <row r="20" spans="1:15" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="F20" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="H20" s="10" t="s">
         <v>17</v>
       </c>
@@ -2738,62 +2866,70 @@
         <v>14</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="22" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" spans="1:15" s="13" customFormat="1" ht="308">
+    <row r="21" spans="1:15" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="F21" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="H21" s="10" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J21" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="L21" s="18"/>
       <c r="M21" s="22" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="1:15" s="13" customFormat="1" ht="204" customHeight="1">
+    <row r="22" spans="1:15" s="13" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="F22" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="H22" s="10" t="s">
         <v>17</v>
       </c>
@@ -2804,21 +2940,21 @@
         <v>14</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="L22" s="18"/>
       <c r="M22" s="22" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="N22" s="14"/>
       <c r="O22" s="12"/>
     </row>
-    <row r="23" spans="1:15" s="13" customFormat="1" ht="98">
+    <row r="23" spans="1:15" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>27</v>
@@ -2831,13 +2967,13 @@
         <v>17</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J23" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="L23" s="18"/>
       <c r="M23" s="22" t="s">
@@ -2846,112 +2982,124 @@
       <c r="N23" s="14"/>
       <c r="O23" s="12"/>
     </row>
-    <row r="24" spans="1:15" s="13" customFormat="1" ht="252">
+    <row r="24" spans="1:15" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="F24" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="H24" s="10" t="s">
         <v>17</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J24" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="L24" s="18"/>
       <c r="M24" s="20" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="N24" s="16"/>
       <c r="O24" s="12"/>
     </row>
-    <row r="25" spans="1:15" ht="252">
+    <row r="25" spans="1:15" ht="409" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="F25" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="H25" s="10" t="s">
         <v>17</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J25" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="L25" s="18"/>
       <c r="M25" s="20" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:15" ht="158.5" customHeight="1">
+    <row r="26" spans="1:15" ht="158.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="F26" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="H26" s="10" t="s">
         <v>17</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J26" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L26" s="18"/>
       <c r="M26" s="20" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:15" ht="98">
+    <row r="27" spans="1:15" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -2961,90 +3109,98 @@
         <v>17</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J27" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L27" s="18"/>
       <c r="M27" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:15" ht="91.75" customHeight="1">
+    <row r="28" spans="1:15" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="F28" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>129</v>
+      </c>
       <c r="H28" s="10" t="s">
         <v>17</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J28" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="L28" s="18"/>
       <c r="M28" s="22" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="N28" s="11"/>
     </row>
-    <row r="29" spans="1:15" ht="165" customHeight="1">
+    <row r="29" spans="1:15" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="F29" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>129</v>
+      </c>
       <c r="H29" s="10" t="s">
         <v>17</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J29" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="L29" s="28"/>
-      <c r="M29" s="29" t="s">
-        <v>144</v>
+      <c r="M29" s="22" t="s">
+        <v>148</v>
       </c>
       <c r="N29" s="9"/>
     </row>
-    <row r="30" spans="1:15" ht="108" customHeight="1">
+    <row r="30" spans="1:15" ht="142" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>32</v>
@@ -3052,34 +3208,34 @@
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="G30" s="20"/>
       <c r="H30" s="10" t="s">
         <v>17</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J30" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L30" s="18"/>
       <c r="M30" s="26" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" spans="1:15" ht="101" customHeight="1">
+    <row r="31" spans="1:15" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
@@ -3089,26 +3245,26 @@
         <v>17</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J31" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L31" s="18"/>
       <c r="M31" s="26" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N31" s="9"/>
     </row>
-    <row r="32" spans="1:15" ht="88" customHeight="1">
+    <row r="32" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>15</v>
@@ -3121,26 +3277,26 @@
         <v>17</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J32" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L32" s="25"/>
       <c r="M32" s="26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" spans="1:14" ht="98" customHeight="1">
+    <row r="33" spans="1:14" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>16</v>
@@ -3153,17 +3309,17 @@
         <v>17</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J33" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L33" s="25"/>
       <c r="M33" s="26" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N33" s="9"/>
     </row>

--- a/target/classes/caseconf/userQueryLimit/Case_userQueryLimit.xlsx
+++ b/target/classes/caseconf/userQueryLimit/Case_userQueryLimit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5100" yWindow="-23100" windowWidth="45120" windowHeight="19820"/>
+    <workbookView xWindow="-9620" yWindow="-28340" windowWidth="51200" windowHeight="28340"/>
   </bookViews>
   <sheets>
     <sheet name="userQueryLimit" sheetId="2" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="161">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -864,6 +864,637 @@
     "dataType": "1"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "tenantId": "1001",
+    "params": {"name": "张飞"
+    },
+    "dataType": "0"
+}
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"certNo":"123456789"
+    },
+    "dataType": "0"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"mobileNo":"09876543",
+    "email": "3234567@126.com"
+    },
+    "dataType": "1"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"email":"3234567@126.com"
+    },
+    "dataType": "0"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "certNo": ""
+    },
+    "dataType": "1"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com"
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com"
+    },
+    "dataType":"0",
+    "dataDtail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "李四",
+            "mobileNo": "15510556733",
+            "certNo": "541222199303040000",
+            "email": "3234567@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "a4292d5e92be734194926548ec6e3cf6",
+            "mobileNo": "74108036c205aedb06337232d5a01f03",
+            "certNo": "d508ebd3c36b9297a99a7354e0ae4f74",
+            "email": "03065f0f961760adf3d79341ac1972e2",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":""
+}
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "李*",
+            "mobileNo": "155****6733",
+            "certNo": "5412**********0000",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"5"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"0"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"0",
+     "dataDetail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "李*",
+            "mobileNo": "155****6733",
+            "certNo": "5412**********0000",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "李*",
+            "certNo": "5412**********0000",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"0",
+     "dataDetail":"dewer"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683351,"699302184693145600","1001","000117","name","张*","nT13aoeQcFo=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683361,"699302184693145600","1001","000117","mobileNo","098*6543","/nTfWbdOOoCKU4JOcCMeIQ==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683371,"699302184693145600","1001","000117","certNo","1234*6789","/RvAvK5TAdZ8n7EFJpj7Gw==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683381,"699302184693145600","1001","000117","email","3234***@126.com","/1x14CMZmuuTF9l2WwG6lw==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699302184693145600","1001","000117",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViSU1GMU9HTFNmZGI4SzFZNXMvU3JmamdhblhPS3RCYzJBQUFBQUFBQUFBRHdGT0wrTngyZjZqR1o3ZUZaV3FscGRDUmJYQTJtTFZVQzZxYzFzQjZ3Vm1vS0UrcDh5L0MzSE1IVzBlL3ZOYTRsNitzUDFBRm4rYmNRcTludjFoZ3JPZlAxVGZJVitxWGdyaWVtVlpiNkg3TkM3OUFZYUU5MWdNMWJnZC85Y0pGVVd1ekNYVy9keXVKOUtmcEw0c00rNStsVkVKSVJZaEtCTXhUYStMblAxVThJcUQ1dVpLKzUxczQ4MTdVR2pWa2dNU3hya3dBaWdnbS9USkEwWUN2TjhKMUV3L2U3QkpQZHo3MlRnNmJRWndGS1lFeXNXdXdjVU5qaDV4NDRNZitHTjlaQ3BqVGs5Z0UxaGRvZVk0RFNvWEtkTGVjVUZHVExkL1N3NmJseTZvZjlDK1hJTU9NWVFwMFl1bndzc2JRN1RmQlpFQ0xOUXBiMUMwcVZ6ckNNNVh2dlNSVUdPOUthVVhFY2NCa0xhUkVsYWRJR0V6ZXYzenJJdEdBaWdQNGtjUTEzaGwzSllnOERubDhsb0NFbW9Samc0YWVkTmdDNHU3Y1g4SFFpUE9JQVVCNnZMMHNIWFdKTW90Ui9ENExWU29lT1lYdDdPMDBoQWx1RlNHdis4ZmNGV1kwemRTcz0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699302184693145600","1001","000117","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id ="000117"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000117" and tenant_id = "1001";
+delete from user_index where tenant_user_id ="000117" and tenant_id = "1001";
+delete from user_request_serial where tenant_id = "1001";
+delete from user_basic_info where tenant_user_id ="000115"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000115" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000115" and tenant_id = "1001";
+delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"mobileNo": "9876543"
+    },
+    "dataType": "1"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"name": "电脑"
+    },
+    "dataType": "1"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {
+     "certNo": "0000"
+    },
+    "dataType": "1"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {
+     "email": "qwertyuiop"
+    },
+    "dataType": "1"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id ="000117"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000117" and tenant_id = "1001";
+delete from user_index where tenant_user_id ="000117" and tenant_id = "1001";
+delete from user_request_serial where tenant_id = "1001";
+delete from user_basic_info where tenant_user_id ="000115"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000115" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000115" and tenant_id = "1001";</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"mobileNo": "15510556733"
+    },
+    "dataType": "1",
+    "dataDetail": "all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "12345678",
+    "params": {"mobileNo":"15510556733",
+    "email": "qwe@126.com"
+    },
+    "dataType": "1"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"1"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"2"
+}
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "李*",
+            "mobileNo": "155****6733",
+            "certNo": "5412**********0000",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"0",
+    "dataDetail":"name,certNo"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"mobileNo":"99988703",
+    "email": "qwe@126.com"
+    },
+    "dataType": "1"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>userQueryLimit-014</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"0",
+     "dataDetail":"name11"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683351,"699302184693145600","1001","000117","name","张*","nT13aoeQcFo=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683361,"699302184693145600","1001","000117","mobileNo","098*6543","/nTfWbdOOoCKU4JOcCMeIQ==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683371,"699302184693145600","1001","000117","certNo","1234*6789","/RvAvK5TAdZ8n7EFJpj7Gw==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683381,"699302184693145600","1001","000117","email","3234***@126.com","/1x14CMZmuuTF9l2WwG6lw==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699302184693145600","1001","000117",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViSU1GMU9HTFNmZGI4SzFZNXMvU3JmamdhblhPS3RCYzJBQUFBQUFBQUFBRHdGT0wrTngyZjZqR1o3ZUZaV3FscGRDUmJYQTJtTFZVQzZxYzFzQjZ3Vm1vS0UrcDh5L0MzSE1IVzBlL3ZOYTRsNitzUDFBRm4rYmNRcTludjFoZ3JPZlAxVGZJVitxWGdyaWVtVlpiNkg3TkM3OUFZYUU5MWdNMWJnZC85Y0pGVVd1ekNYVy9keXVKOUtmcEw0c00rNStsVkVKSVJZaEtCTXhUYStMblAxVThJcUQ1dVpLKzUxczQ4MTdVR2pWa2dNU3hya3dBaWdnbS9USkEwWUN2TjhKMUV3L2U3QkpQZHo3MlRnNmJRWndGS1lFeXNXdXdjVU5qaDV4NDRNZitHTjlaQ3BqVGs5Z0UxaGRvZVk0RFNvWEtkTGVjVUZHVExkL1N3NmJseTZvZjlDK1hJTU9NWVFwMFl1bndzc2JRN1RmQlpFQ0xOUXBiMUMwcVZ6ckNNNVh2dlNSVUdPOUthVVhFY2NCa0xhUkVsYWRJR0V6ZXYzenJJdEdBaWdQNGtjUTEzaGwzSllnOERubDhsb0NFbW9Samc0YWVkTmdDNHU3Y1g4SFFpUE9JQVVCNnZMMHNIWFdKTW90Ui9ENExWU29lT1lYdDdPMDBoQWx1RlNHdis4ZmNGV1kwemRTcz0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699302184693145600","1001","000117","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683351,"699302184693145600","1001","000117","name","张*","nT13aoeQcFo=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683361,"699302184693145600","1001","000117","mobileNo","098*6543","/nTfWbdOOoCKU4JOcCMeIQ==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683371,"699302184693145600","1001","000117","certNo","1234*6789","/RvAvK5TAdZ8n7EFJpj7Gw==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683381,"699302184693145600","1001","000117","email","3234***@126.com","/1x14CMZmuuTF9l2WwG6lw==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699302184693145600","1001","000117",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViSU1GMU9HTFNmZGI4SzFZNXMvU3JmamdhblhPS3RCYzJBQUFBQUFBQUFBRHdGT0wrTngyZjZqR1o3ZUZaV3FscGRDUmJYQTJtTFZVQzZxYzFzQjZ3Vm1vS0UrcDh5L0MzSE1IVzBlL3ZOYTRsNitzUDFBRm4rYmNRcTludjFoZ3JPZlAxVGZJVitxWGdyaWVtVlpiNkg3TkM3OUFZYUU5MWdNMWJnZC85Y0pGVVd1ekNYVy9keXVKOUtmcEw0c00rNStsVkVKSVJZaEtCTXhUYStMblAxVThJcUQ1dVpLKzUxczQ4MTdVR2pWa2dNU3hya3dBaWdnbS9USkEwWUN2TjhKMUV3L2U3QkpQZHo3MlRnNmJRWndGS1lFeXNXdXdjVU5qaDV4NDRNZitHTjlaQ3BqVGs5Z0UxaGRvZVk0RFNvWEtkTGVjVUZHVExkL1N3NmJseTZvZjlDK1hJTU9NWVFwMFl1bndzc2JRN1RmQlpFQ0xOUXBiMUMwcVZ6ckNNNVh2dlNSVUdPOUthVVhFY2NCa0xhUkVsYWRJR0V6ZXYzenJJdEdBaWdQNGtjUTEzaGwzSllnOERubDhsb0NFbW9Samc0YWVkTmdDNHU3Y1g4SFFpUE9JQVVCNnZMMHNIWFdKTW90Ui9ENExWU29lT1lYdDdPMDBoQWx1RlNHdis4ZmNGV1kwemRTcz0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699302184693145600","1001","000117","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id ="000117"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000117" and tenant_id = "1001";
+delete from user_index where tenant_user_id ="000117" and tenant_id = "1001";
+delete from user_request_serial where tenant_id = "1001";
+delete from user_basic_info where tenant_user_id ="000115"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000115" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000115" and tenant_id = "1001";</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683351,"699302184693145600","1001","000117","name","张*","nT13aoeQcFo=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683361,"699302184693145600","1001","000117","mobileNo","098*6543","/nTfWbdOOoCKU4JOcCMeIQ==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683371,"699302184693145600","1001","000117","certNo","1234*6789","/RvAvK5TAdZ8n7EFJpj7Gw==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683381,"699302184693145600","1001","000117","email","3234***@126.com","/1x14CMZmuuTF9l2WwG6lw==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699302184693145600","1001","000117",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViSU1GMU9HTFNmZGI4SzFZNXMvU3JmamdhblhPS3RCYzJBQUFBQUFBQUFBRHdGT0wrTngyZjZqR1o3ZUZaV3FscGRDUmJYQTJtTFZVQzZxYzFzQjZ3Vm1vS0UrcDh5L0MzSE1IVzBlL3ZOYTRsNitzUDFBRm4rYmNRcTludjFoZ3JPZlAxVGZJVitxWGdyaWVtVlpiNkg3TkM3OUFZYUU5MWdNMWJnZC85Y0pGVVd1ekNYVy9keXVKOUtmcEw0c00rNStsVkVKSVJZaEtCTXhUYStMblAxVThJcUQ1dVpLKzUxczQ4MTdVR2pWa2dNU3hya3dBaWdnbS9USkEwWUN2TjhKMUV3L2U3QkpQZHo3MlRnNmJRWndGS1lFeXNXdXdjVU5qaDV4NDRNZitHTjlaQ3BqVGs5Z0UxaGRvZVk0RFNvWEtkTGVjVUZHVExkL1N3NmJseTZvZjlDK1hJTU9NWVFwMFl1bndzc2JRN1RmQlpFQ0xOUXBiMUMwcVZ6ckNNNVh2dlNSVUdPOUthVVhFY2NCa0xhUkVsYWRJR0V6ZXYzenJJdEdBaWdQNGtjUTEzaGwzSllnOERubDhsb0NFbW9Samc0YWVkTmdDNHU3Y1g4SFFpUE9JQVVCNnZMMHNIWFdKTW90Ui9ENExWU29lT1lYdDdPMDBoQWx1RlNHdis4ZmNGV1kwemRTcz0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699302184693145600","1001","000117","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000115",
+            "userId": 699297352645222400,
+            "name": "张*",
+            "mobileNo": "098*6543",
+            "certNo": "1234*6789",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        },
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000117",
+            "userId": 699302184693145600,
+            "name": "张*",
+            "mobileNo": "098*6543",
+            "certNo": "1234*6789",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000115",
+            "userId": 699297352645222400,
+            "name": "张*",
+            "mobileNo": "098*6543",
+            "certNo": "1234*6789",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        },
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000117",
+            "userId": 699302184693145600,
+            "name": "张*",
+            "mobileNo": "098*6543",
+            "certNo": "1234*6789",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id ="000117"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000117" and tenant_id = "1001";
+delete from user_index where tenant_user_id ="000117" and tenant_id = "1001";
+delete from user_request_serial where tenant_id = "1001";
+delete from user_basic_info where tenant_user_id ="000115"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000115" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000115" and tenant_id = "1001"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683351,"699302184693145600","1001","000117","name","张*","nT13aoeQcFo=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683361,"699302184693145600","1001","000117","mobileNo","098*6543","/nTfWbdOOoCKU4JOcCMeIQ==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683371,"699302184693145600","1001","000117","certNo","1234*6789","/RvAvK5TAdZ8n7EFJpj7Gw==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683381,"699302184693145600","1001","000117","email","3234***@126.com","/1x14CMZmuuTF9l2WwG6lw==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699302184693145600","1001","000117",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViSU1GMU9HTFNmZGI4SzFZNXMvU3JmamdhblhPS3RCYzJBQUFBQUFBQUFBRHdGT0wrTngyZjZqR1o3ZUZaV3FscGRDUmJYQTJtTFZVQzZxYzFzQjZ3Vm1vS0UrcDh5L0MzSE1IVzBlL3ZOYTRsNitzUDFBRm4rYmNRcTludjFoZ3JPZlAxVGZJVitxWGdyaWVtVlpiNkg3TkM3OUFZYUU5MWdNMWJnZC85Y0pGVVd1ekNYVy9keXVKOUtmcEw0c00rNStsVkVKSVJZaEtCTXhUYStMblAxVThJcUQ1dVpLKzUxczQ4MTdVR2pWa2dNU3hya3dBaWdnbS9USkEwWUN2TjhKMUV3L2U3QkpQZHo3MlRnNmJRWndGS1lFeXNXdXdjVU5qaDV4NDRNZitHTjlaQ3BqVGs5Z0UxaGRvZVk0RFNvWEtkTGVjVUZHVExkL1N3NmJseTZvZjlDK1hJTU9NWVFwMFl1bndzc2JRN1RmQlpFQ0xOUXBiMUMwcVZ6ckNNNVh2dlNSVUdPOUthVVhFY2NCa0xhUkVsYWRJR0V6ZXYzenJJdEdBaWdQNGtjUTEzaGwzSllnOERubDhsb0NFbW9Samc0YWVkTmdDNHU3Y1g4SFFpUE9JQVVCNnZMMHNIWFdKTW90Ui9ENExWU29lT1lYdDdPMDBoQWx1RlNHdis4ZmNGV1kwemRTcz0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699302184693145600","1001","000117","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -898,394 +1529,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">{
-    "tenantId": "1001",
-    "params": {"name": "张飞"
-    },
-    "dataType": "0"
-}
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000113",
-            "userId": 699222007535509504,
-            "name": "李*",
-            "mobileNo": "155****6733",
-            "certNo": "5412**********0000",
-            "email": "3234***@126.com",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        },
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000115",
-            "userId": 699297352645222400,
-            "name": "张*",
-            "mobileNo": "098*6543",
-            "certNo": "1234*6789",
-            "email": "3234***@126.com",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        },
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000117",
-            "userId": 699302184693145600,
-            "name": "张*",
-            "mobileNo": "098*6543",
-            "certNo": "1234*6789",
-            "email": "3234***@126.com",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "1001",
-    "params": {"certNo":"123456789"
-    },
-    "dataType": "0"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "12345678",
-            "tenantUserId": "123456",
-            "userId": 694516856941977600,
-            "name": "小明",
-            "mobileNo": "13366590175",
-            "certNo": "341222199303040000",
-            "email": "1234567@126.com",
-            "createTime": "2020-03-31 11:02:03",
-            "updateTime": "2020-03-31 11:02:03"
-        },
-        {
-            "tenantId": "12345678",
-            "tenantUserId": "671",
-            "userId": 694559579820531712,
-            "name": "小马",
-            "mobileNo": "05588703",
-            "certNo": "341222199303040000",
-            "email": "abc@126.com",
-            "createTime": "2020-03-31 13:51:48",
-            "updateTime": "2020-03-31 13:51:48"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "1001",
-    "params": {"mobileNo":"09876543",
-    "email": "3234567@126.com"
-    },
-    "dataType": "1"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "1001",
-    "params": {"email":"3234567@126.com"
-    },
-    "dataType": "0"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "certNo": ""
-    },
-    "dataType": "1"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com"
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com"
-    },
-    "dataType":"0",
-    "dataDtail":"all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000113",
-            "userId": 699222007535509504,
-            "name": "李四",
-            "mobileNo": "15510556733",
-            "certNo": "541222199303040000",
-            "email": "3234567@126.com",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000113",
-            "userId": 699222007535509504,
-            "name": "a4292d5e92be734194926548ec6e3cf6",
-            "mobileNo": "74108036c205aedb06337232d5a01f03",
-            "certNo": "d508ebd3c36b9297a99a7354e0ae4f74",
-            "email": "03065f0f961760adf3d79341ac1972e2",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":""
-}
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000113",
-            "userId": 699222007535509504,
-            "name": "李*",
-            "mobileNo": "155****6733",
-            "certNo": "5412**********0000",
-            "email": "3234***@126.com",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":"5"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":"0"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":"0",
-     "dataDetail":"all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000113",
-            "userId": 699222007535509504,
-            "name": "李*",
-            "mobileNo": "155****6733",
-            "certNo": "5412**********0000",
-            "email": "3234***@126.com",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000113",
-            "userId": 699222007535509504,
-            "name": "李*",
-            "certNo": "5412**********0000",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":"0",
-     "dataDetail":"dewer"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683351,"699302184693145600","1001","000117","name","张*","nT13aoeQcFo=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683361,"699302184693145600","1001","000117","mobileNo","098*6543","/nTfWbdOOoCKU4JOcCMeIQ==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683371,"699302184693145600","1001","000117","certNo","1234*6789","/RvAvK5TAdZ8n7EFJpj7Gw==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683381,"699302184693145600","1001","000117","email","3234***@126.com","/1x14CMZmuuTF9l2WwG6lw==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699302184693145600","1001","000117",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViSU1GMU9HTFNmZGI4SzFZNXMvU3JmamdhblhPS3RCYzJBQUFBQUFBQUFBRHdGT0wrTngyZjZqR1o3ZUZaV3FscGRDUmJYQTJtTFZVQzZxYzFzQjZ3Vm1vS0UrcDh5L0MzSE1IVzBlL3ZOYTRsNitzUDFBRm4rYmNRcTludjFoZ3JPZlAxVGZJVitxWGdyaWVtVlpiNkg3TkM3OUFZYUU5MWdNMWJnZC85Y0pGVVd1ekNYVy9keXVKOUtmcEw0c00rNStsVkVKSVJZaEtCTXhUYStMblAxVThJcUQ1dVpLKzUxczQ4MTdVR2pWa2dNU3hya3dBaWdnbS9USkEwWUN2TjhKMUV3L2U3QkpQZHo3MlRnNmJRWndGS1lFeXNXdXdjVU5qaDV4NDRNZitHTjlaQ3BqVGs5Z0UxaGRvZVk0RFNvWEtkTGVjVUZHVExkL1N3NmJseTZvZjlDK1hJTU9NWVFwMFl1bndzc2JRN1RmQlpFQ0xOUXBiMUMwcVZ6ckNNNVh2dlNSVUdPOUthVVhFY2NCa0xhUkVsYWRJR0V6ZXYzenJJdEdBaWdQNGtjUTEzaGwzSllnOERubDhsb0NFbW9Samc0YWVkTmdDNHU3Y1g4SFFpUE9JQVVCNnZMMHNIWFdKTW90Ui9ENExWU29lT1lYdDdPMDBoQWx1RlNHdis4ZmNGV1kwemRTcz0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699302184693145600","1001","000117","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id ="000117"  and tenant_id = "1001";
-delete from user_info_item where tenant_user_id = "000117" and tenant_id = "1001";
-delete from user_index where tenant_user_id ="000117" and tenant_id = "1001";
-delete from user_request_serial where tenant_id = "1001";
-delete from user_basic_info where tenant_user_id ="000115"  and tenant_id = "1001";
-delete from user_info_item where tenant_user_id = "000115" and tenant_id = "1001";
-delete from user_index where tenant_user_id = "000115" and tenant_id = "1001";
-delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
-delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
-delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
-delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
-delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "1001",
-    "params": {"mobileNo": "9876543"
-    },
-    "dataType": "1"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "1001",
-    "params": {"name": "电脑"
-    },
-    "dataType": "1"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "1001",
-    "params": {
-     "certNo": "0000"
-    },
-    "dataType": "1"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "1001",
-    "params": {
-     "email": "qwertyuiop"
-    },
-    "dataType": "1"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "resCode": "E0000",
     "resMsg": "成功",
@@ -1295,10 +1538,10 @@
             "tenantId": "1001",
             "tenantUserId": "000115",
             "userId": 699297352645222400,
-            "name": "张*",
-            "mobileNo": "098*6543",
-            "certNo": "1234*6789",
-            "email": "3234***@126.com",
+            "name": "张飞",
+            "mobileNo": "09876543",
+            "certNo": "123456789",
+            "email": "3234567@126.com",
             "createTime": "2020-03-28 21:49:59",
             "updateTime": "2020-03-28 21:49:59"
         },
@@ -1306,60 +1549,14 @@
             "tenantId": "1001",
             "tenantUserId": "000117",
             "userId": 699302184693145600,
-            "name": "张*",
-            "mobileNo": "098*6543",
-            "certNo": "1234*6789",
-            "email": "3234***@126.com",
+            "name": "张飞",
+            "mobileNo": "09876543",
+            "certNo": "123456789",
+            "email": "3234567@126.com",
             "createTime": "2020-03-28 21:49:59",
             "updateTime": "2020-03-28 21:49:59"
         }
     ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683351,"699302184693145600","1001","000117","name","张*","nT13aoeQcFo=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683361,"699302184693145600","1001","000117","mobileNo","098*6543","/nTfWbdOOoCKU4JOcCMeIQ==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683371,"699302184693145600","1001","000117","certNo","1234*6789","/RvAvK5TAdZ8n7EFJpj7Gw==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683381,"699302184693145600","1001","000117","email","3234***@126.com","/1x14CMZmuuTF9l2WwG6lw==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699302184693145600","1001","000117",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViSU1GMU9HTFNmZGI4SzFZNXMvU3JmamdhblhPS3RCYzJBQUFBQUFBQUFBRHdGT0wrTngyZjZqR1o3ZUZaV3FscGRDUmJYQTJtTFZVQzZxYzFzQjZ3Vm1vS0UrcDh5L0MzSE1IVzBlL3ZOYTRsNitzUDFBRm4rYmNRcTludjFoZ3JPZlAxVGZJVitxWGdyaWVtVlpiNkg3TkM3OUFZYUU5MWdNMWJnZC85Y0pGVVd1ekNYVy9keXVKOUtmcEw0c00rNStsVkVKSVJZaEtCTXhUYStMblAxVThJcUQ1dVpLKzUxczQ4MTdVR2pWa2dNU3hya3dBaWdnbS9USkEwWUN2TjhKMUV3L2U3QkpQZHo3MlRnNmJRWndGS1lFeXNXdXdjVU5qaDV4NDRNZitHTjlaQ3BqVGs5Z0UxaGRvZVk0RFNvWEtkTGVjVUZHVExkL1N3NmJseTZvZjlDK1hJTU9NWVFwMFl1bndzc2JRN1RmQlpFQ0xOUXBiMUMwcVZ6ckNNNVh2dlNSVUdPOUthVVhFY2NCa0xhUkVsYWRJR0V6ZXYzenJJdEdBaWdQNGtjUTEzaGwzSllnOERubDhsb0NFbW9Samc0YWVkTmdDNHU3Y1g4SFFpUE9JQVVCNnZMMHNIWFdKTW90Ui9ENExWU29lT1lYdDdPMDBoQWx1RlNHdis4ZmNGV1kwemRTcz0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699302184693145600","1001","000117","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id ="000117"  and tenant_id = "1001";
-delete from user_info_item where tenant_user_id = "000117" and tenant_id = "1001";
-delete from user_index where tenant_user_id ="000117" and tenant_id = "1001";
-delete from user_request_serial where tenant_id = "1001";
-delete from user_basic_info where tenant_user_id ="000115"  and tenant_id = "1001";
-delete from user_info_item where tenant_user_id = "000115" and tenant_id = "1001";
-delete from user_index where tenant_user_id = "000115" and tenant_id = "1001";</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "1001",
-    "params": {"mobileNo": "15510556733"
-    },
-    "dataType": "1",
-    "dataDetail": "all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "12345678",
-    "params": {"mobileNo":"15510556733",
-    "email": "qwe@126.com"
-    },
-    "dataType": "1"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1422,46 +1619,13 @@
             "email": "3234***@126.com",
             "createTime": "2020-03-28 21:49:59",
             "updateTime": "2020-03-28 21:49:59"
-        },
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000115",
-            "userId": 699297352645222400,
-            "name": "张*",
-            "mobileNo": "098*6543",
-            "certNo": "1234*6789",
-            "email": "3234***@126.com",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        },
-        {
+        },        {
             "tenantId": "1001",
             "tenantUserId": "000117",
             "userId": 699302184693145600,
             "name": "张*",
             "mobileNo": "098*6543",
             "certNo": "1234*6789",
-            "email": "3234***@126.com",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000113",
-            "userId": 699222007535509504,
-            "name": "李*",
-            "mobileNo": "155****6733",
-            "certNo": "5412**********0000",
             "email": "3234***@126.com",
             "createTime": "2020-03-28 21:49:59",
             "updateTime": "2020-03-28 21:49:59"
@@ -1476,146 +1640,9 @@
             "email": "3234***@126.com",
             "createTime": "2020-03-28 21:49:59",
             "updateTime": "2020-03-28 21:49:59"
-        },
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000117",
-            "userId": 699302184693145600,
-            "name": "张*",
-            "mobileNo": "098*6543",
-            "certNo": "1234*6789",
-            "email": "3234***@126.com",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
         }
     ]
 }</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":"1"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
-delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
-delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":"2"
-}
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000113",
-            "userId": 699222007535509504,
-            "name": "李*",
-            "mobileNo": "155****6733",
-            "certNo": "5412**********0000",
-            "email": "3234***@126.com",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":"0",
-    "dataDetail":"name,certNo"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000113",
-            "userId": 699222007535509504,
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "1001",
-    "params": {"mobileNo":"99988703",
-    "email": "qwe@126.com"
-    },
-    "dataType": "1"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>userQueryLimit-014</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":"0",
-     "dataDetail":"name11"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1623,7 +1650,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1686,8 +1713,15 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1709,12 +1743,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1829,7 +1857,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2116,9 +2144,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F15" sqref="F15"/>
+      <selection pane="topRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2135,7 +2163,7 @@
     <col min="10" max="10" width="24.1640625" style="15" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="43.6640625" style="5" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="88" style="5" customWidth="1"/>
     <col min="14" max="14" width="25.83203125" style="5" customWidth="1"/>
     <col min="15" max="15" width="15" style="8" customWidth="1"/>
     <col min="16" max="16" width="65.83203125" style="5" customWidth="1"/>
@@ -2205,10 +2233,10 @@
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>147</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>129</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>17</v>
@@ -2242,10 +2270,10 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="30" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>17</v>
@@ -2257,7 +2285,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="20" t="s">
@@ -2279,10 +2307,10 @@
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>17</v>
@@ -2316,10 +2344,10 @@
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>17</v>
@@ -2364,7 +2392,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L6" s="28"/>
       <c r="M6" s="29" t="s">
@@ -2397,7 +2425,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L7" s="28"/>
       <c r="M7" s="29" t="s">
@@ -2430,7 +2458,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L8" s="28"/>
       <c r="M8" s="29" t="s">
@@ -2463,7 +2491,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="29" t="s">
@@ -2485,10 +2513,10 @@
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="30" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>17</v>
@@ -2500,11 +2528,11 @@
         <v>14</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L10" s="28"/>
       <c r="M10" s="29" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="N10" s="16"/>
       <c r="O10" s="12"/>
@@ -2522,10 +2550,10 @@
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="30" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>17</v>
@@ -2541,7 +2569,7 @@
       </c>
       <c r="L11" s="28"/>
       <c r="M11" s="29" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="12"/>
@@ -2559,10 +2587,10 @@
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="30" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>17</v>
@@ -2574,11 +2602,11 @@
         <v>14</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L12" s="28"/>
       <c r="M12" s="29" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="N12" s="16"/>
       <c r="O12" s="12"/>
@@ -2596,10 +2624,10 @@
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="30" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>17</v>
@@ -2611,11 +2639,11 @@
         <v>14</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L13" s="28"/>
       <c r="M13" s="29" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="12"/>
@@ -2633,10 +2661,10 @@
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="30" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>17</v>
@@ -2648,21 +2676,21 @@
         <v>14</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L14" s="28"/>
       <c r="M14" s="29" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="1:16" s="13" customFormat="1" ht="126" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>51</v>
@@ -2681,7 +2709,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="L15" s="28"/>
       <c r="M15" s="29" t="s">
@@ -2703,10 +2731,10 @@
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>17</v>
@@ -2718,7 +2746,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="29" t="s">
@@ -2740,10 +2768,10 @@
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>17</v>
@@ -2755,11 +2783,11 @@
         <v>14</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L17" s="28"/>
       <c r="M17" s="29" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="N17" s="14"/>
       <c r="O17" s="12"/>
@@ -2777,10 +2805,10 @@
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>17</v>
@@ -2792,11 +2820,11 @@
         <v>14</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="20" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="12"/>
@@ -2814,10 +2842,10 @@
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>17</v>
@@ -2829,11 +2857,11 @@
         <v>14</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="20" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="12"/>
@@ -2851,10 +2879,10 @@
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>17</v>
@@ -2866,11 +2894,11 @@
         <v>14</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="12"/>
@@ -2888,10 +2916,10 @@
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>17</v>
@@ -2903,11 +2931,11 @@
         <v>14</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="L21" s="18"/>
       <c r="M21" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="12"/>
@@ -2925,10 +2953,10 @@
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>17</v>
@@ -2940,11 +2968,11 @@
         <v>14</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L22" s="18"/>
       <c r="M22" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N22" s="14"/>
       <c r="O22" s="12"/>
@@ -2973,7 +3001,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L23" s="18"/>
       <c r="M23" s="22" t="s">
@@ -2995,10 +3023,10 @@
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>17</v>
@@ -3010,11 +3038,11 @@
         <v>14</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L24" s="18"/>
       <c r="M24" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="N24" s="16"/>
       <c r="O24" s="12"/>
@@ -3032,10 +3060,10 @@
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>17</v>
@@ -3047,11 +3075,11 @@
         <v>14</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L25" s="18"/>
       <c r="M25" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N25" s="11"/>
     </row>
@@ -3068,10 +3096,10 @@
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>17</v>
@@ -3083,11 +3111,11 @@
         <v>14</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="L26" s="18"/>
       <c r="M26" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N26" s="11"/>
     </row>
@@ -3125,7 +3153,7 @@
     </row>
     <row r="28" spans="1:15" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>94</v>
@@ -3136,10 +3164,10 @@
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>17</v>
@@ -3151,17 +3179,17 @@
         <v>14</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="L28" s="18"/>
       <c r="M28" s="22" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="N28" s="11"/>
     </row>
     <row r="29" spans="1:15" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>95</v>
@@ -3172,10 +3200,10 @@
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>17</v>
@@ -3187,11 +3215,11 @@
         <v>14</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L29" s="28"/>
       <c r="M29" s="22" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="N29" s="9"/>
     </row>

--- a/target/classes/caseconf/userQueryLimit/Case_userQueryLimit.xlsx
+++ b/target/classes/caseconf/userQueryLimit/Case_userQueryLimit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-9620" yWindow="-28340" windowWidth="51200" windowHeight="28340"/>
+    <workbookView xWindow="-8560" yWindow="-23500" windowWidth="51200" windowHeight="28340"/>
   </bookViews>
   <sheets>
     <sheet name="userQueryLimit" sheetId="2" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="165">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -953,27 +953,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000113",
-            "userId": 699222007535509504,
-            "name": "a4292d5e92be734194926548ec6e3cf6",
-            "mobileNo": "74108036c205aedb06337232d5a01f03",
-            "certNo": "d508ebd3c36b9297a99a7354e0ae4f74",
-            "email": "03065f0f961760adf3d79341ac1972e2",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 {
     "tenantId": "1001",
@@ -1008,59 +987,6 @@
   </si>
   <si>
     <t>{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":"5"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":"0"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":"0",
-     "dataDetail":"all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000113",
-            "userId": 699222007535509504,
-            "name": "李*",
-            "mobileNo": "155****6733",
-            "certNo": "5412**********0000",
-            "email": "3234***@126.com",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
     "resCode": "E0000",
     "resMsg": "成功",
     "successful": 1,
@@ -1075,18 +1001,6 @@
             "updateTime": "2020-03-28 21:49:59"
         }
     ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":"0",
-     "dataDetail":"dewer"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1226,17 +1140,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":"2"
-}
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "resCode": "E0000",
     "resMsg": "成功",
@@ -1311,18 +1214,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":"0",
-     "dataDetail":"name11"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1级</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1405,38 +1296,6 @@
 insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000115",
-            "userId": 699297352645222400,
-            "name": "张*",
-            "mobileNo": "098*6543",
-            "certNo": "1234*6789",
-            "email": "3234***@126.com",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        },
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000117",
-            "userId": 699302184693145600,
-            "name": "张*",
-            "mobileNo": "098*6543",
-            "certNo": "1234*6789",
-            "email": "3234***@126.com",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1643,6 +1502,203 @@
         }
     ]
 }</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "李四",
+            "mobileNo": "15510556733",
+            "certNo": "541222199303040000",
+            "email": "3234567@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "李四",
+            "mobileNo": "15510556733",
+            "certNo": "541222199303040000",
+            "email": "3234567@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000115",
+            "userId": 699297352645222400,
+            "name": "张*",
+            "mobileNo": "098*6543",
+            "certNo": "1234*6789",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        },
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000117",
+            "userId": 699302184693145600,
+            "name": "张*",
+            "mobileNo": "098*6543",
+            "certNo": "1234*6789",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "李*",
+            "mobileNo": "155****6733",
+            "certNo": "5412**********0000",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"4"
+}
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"0",
+     "dataDetail":"name11"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "a4292d5e92be734194926548ec6e3cf6",
+            "mobileNo": "74108036c205aedb06337232d5a01f03",
+            "certNo": "d508ebd3c36b9297a99a7354e0ae4f74",
+            "email": "03065f0f961760adf3d79341ac1972e2",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"},
+    "dataType":"0",
+     "dataDetail":"dewer"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"0",
+     "dataDetail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"2"
+}
+</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2144,9 +2200,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G20" sqref="G20"/>
+      <selection pane="topRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2233,10 +2289,10 @@
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="30" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>17</v>
@@ -2270,10 +2326,10 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="30" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>17</v>
@@ -2285,11 +2341,11 @@
         <v>14</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="20" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="N3" s="16"/>
       <c r="O3" s="12"/>
@@ -2307,10 +2363,10 @@
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>17</v>
@@ -2344,10 +2400,10 @@
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>17</v>
@@ -2363,7 +2419,7 @@
       </c>
       <c r="L5" s="18"/>
       <c r="M5" s="20" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="12"/>
@@ -2392,7 +2448,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L6" s="28"/>
       <c r="M6" s="29" t="s">
@@ -2425,7 +2481,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L7" s="28"/>
       <c r="M7" s="29" t="s">
@@ -2458,7 +2514,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L8" s="28"/>
       <c r="M8" s="29" t="s">
@@ -2491,7 +2547,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="29" t="s">
@@ -2513,10 +2569,10 @@
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="30" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>17</v>
@@ -2532,7 +2588,7 @@
       </c>
       <c r="L10" s="28"/>
       <c r="M10" s="29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N10" s="16"/>
       <c r="O10" s="12"/>
@@ -2550,10 +2606,10 @@
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="30" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>17</v>
@@ -2569,7 +2625,7 @@
       </c>
       <c r="L11" s="28"/>
       <c r="M11" s="29" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="12"/>
@@ -2587,10 +2643,10 @@
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="30" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>17</v>
@@ -2606,7 +2662,7 @@
       </c>
       <c r="L12" s="28"/>
       <c r="M12" s="29" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="N12" s="16"/>
       <c r="O12" s="12"/>
@@ -2624,10 +2680,10 @@
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="30" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>17</v>
@@ -2643,7 +2699,7 @@
       </c>
       <c r="L13" s="28"/>
       <c r="M13" s="29" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="12"/>
@@ -2661,10 +2717,10 @@
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="30" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>17</v>
@@ -2680,17 +2736,17 @@
       </c>
       <c r="L14" s="28"/>
       <c r="M14" s="29" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="1:16" s="13" customFormat="1" ht="126" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>51</v>
@@ -2709,7 +2765,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L15" s="28"/>
       <c r="M15" s="29" t="s">
@@ -2731,10 +2787,10 @@
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>17</v>
@@ -2746,7 +2802,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="29" t="s">
@@ -2768,10 +2824,10 @@
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="30" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>17</v>
@@ -2787,7 +2843,7 @@
       </c>
       <c r="L17" s="28"/>
       <c r="M17" s="29" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="N17" s="14"/>
       <c r="O17" s="12"/>
@@ -2805,10 +2861,10 @@
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="30" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>17</v>
@@ -2824,7 +2880,7 @@
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="20" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="12"/>
@@ -2842,10 +2898,10 @@
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="30" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>17</v>
@@ -2861,7 +2917,7 @@
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="20" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="12"/>
@@ -2879,10 +2935,10 @@
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="30" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>17</v>
@@ -2894,7 +2950,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="22" t="s">
@@ -2916,10 +2972,10 @@
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>17</v>
@@ -2931,11 +2987,11 @@
         <v>14</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="L21" s="18"/>
       <c r="M21" s="22" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="12"/>
@@ -2953,10 +3009,10 @@
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>17</v>
@@ -2968,16 +3024,16 @@
         <v>14</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L22" s="18"/>
       <c r="M22" s="22" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="N22" s="14"/>
       <c r="O22" s="12"/>
     </row>
-    <row r="23" spans="1:15" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -2989,8 +3045,12 @@
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="F23" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>129</v>
+      </c>
       <c r="H23" s="10" t="s">
         <v>17</v>
       </c>
@@ -3001,7 +3061,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="L23" s="18"/>
       <c r="M23" s="22" t="s">
@@ -3023,10 +3083,10 @@
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>17</v>
@@ -3038,11 +3098,11 @@
         <v>14</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="L24" s="18"/>
       <c r="M24" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N24" s="16"/>
       <c r="O24" s="12"/>
@@ -3060,10 +3120,10 @@
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>17</v>
@@ -3075,11 +3135,11 @@
         <v>14</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="L25" s="18"/>
       <c r="M25" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N25" s="11"/>
     </row>
@@ -3096,10 +3156,10 @@
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>17</v>
@@ -3111,11 +3171,11 @@
         <v>14</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="L26" s="18"/>
       <c r="M26" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N26" s="11"/>
     </row>
@@ -3153,7 +3213,7 @@
     </row>
     <row r="28" spans="1:15" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>94</v>
@@ -3164,10 +3224,10 @@
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>17</v>
@@ -3179,17 +3239,17 @@
         <v>14</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="L28" s="18"/>
       <c r="M28" s="22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N28" s="11"/>
     </row>
     <row r="29" spans="1:15" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>95</v>
@@ -3200,10 +3260,10 @@
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>17</v>
@@ -3215,11 +3275,11 @@
         <v>14</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="L29" s="28"/>
       <c r="M29" s="22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N29" s="9"/>
     </row>

--- a/target/classes/caseconf/userQueryLimit/Case_userQueryLimit.xlsx
+++ b/target/classes/caseconf/userQueryLimit/Case_userQueryLimit.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform1111/src/main/resources/caseconf/userQueryLimit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform/src/main/resources/caseconf/userQueryLimit/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-8560" yWindow="-23500" windowWidth="51200" windowHeight="28340"/>
+    <workbookView xWindow="-7480" yWindow="-24600" windowWidth="51200" windowHeight="28340"/>
   </bookViews>
   <sheets>
     <sheet name="userQueryLimit" sheetId="2" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="166">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -918,16 +918,6 @@
     "tenantId": "1001",
     "params": {"email": "3234567@126.com"
     }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com"
-    },
-    "dataType":"0",
-    "dataDtail":"all"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1123,16 +1113,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":"1"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
 delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
@@ -1157,18 +1137,6 @@
             "updateTime": "2020-03-28 21:49:59"
         }
     ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":"0",
-    "dataDetail":"name,certNo"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1601,50 +1569,9 @@
   </si>
   <si>
     <t xml:space="preserve">
-{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":"4"
-}
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
 delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
 delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
 delete from user_index where tenant_user_id = "000113" and tenant_id = "1001"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-{
-    "tenantId": "1001",
-    "params": {"email": "3234567@126.com",
-    "mobileNo":"15510556733"
-    },
-    "dataType":"0",
-     "dataDetail":"name11"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
-delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
-delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1680,6 +1607,103 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"1"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com"
+    },
+    "dataType":"0",
+    "dataDtail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"2",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    "dataDtail":"all"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"4"
+}
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"0",
+     "dataDetail":"name11"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>{
     "tenantId": "1001",
     "params": {"email": "3234567@126.com",
@@ -1691,12 +1715,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>{
+    "tenantId": "1001",
+    "params": {"email": "3234567@126.com",
+    "mobileNo":"15510556733"
+    },
+    "dataType":"0",
+    "dataDetail":"name,certNo"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">{
     "tenantId": "1001",
     "params": {"email": "3234567@126.com",
     "mobileNo":"15510556733"
     },
-    "dataType":"2"
+    "dataType":"0"
 }
 </t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1706,7 +1741,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1773,6 +1808,15 @@
       <sz val="14"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2200,9 +2244,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="221" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L21" sqref="L21"/>
+      <selection pane="topRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2289,10 +2333,10 @@
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>17</v>
@@ -2326,10 +2370,10 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>17</v>
@@ -2341,11 +2385,11 @@
         <v>14</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N3" s="16"/>
       <c r="O3" s="12"/>
@@ -2363,10 +2407,10 @@
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>119</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>120</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>17</v>
@@ -2400,10 +2444,10 @@
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>119</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>120</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>17</v>
@@ -2419,7 +2463,7 @@
       </c>
       <c r="L5" s="18"/>
       <c r="M5" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="12"/>
@@ -2448,7 +2492,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L6" s="28"/>
       <c r="M6" s="29" t="s">
@@ -2481,7 +2525,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L7" s="28"/>
       <c r="M7" s="29" t="s">
@@ -2514,7 +2558,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L8" s="28"/>
       <c r="M8" s="29" t="s">
@@ -2547,7 +2591,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="29" t="s">
@@ -2569,10 +2613,10 @@
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>17</v>
@@ -2588,7 +2632,7 @@
       </c>
       <c r="L10" s="28"/>
       <c r="M10" s="29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N10" s="16"/>
       <c r="O10" s="12"/>
@@ -2606,10 +2650,10 @@
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>17</v>
@@ -2625,7 +2669,7 @@
       </c>
       <c r="L11" s="28"/>
       <c r="M11" s="29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="12"/>
@@ -2643,10 +2687,10 @@
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>17</v>
@@ -2662,7 +2706,7 @@
       </c>
       <c r="L12" s="28"/>
       <c r="M12" s="29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N12" s="16"/>
       <c r="O12" s="12"/>
@@ -2680,10 +2724,10 @@
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>17</v>
@@ -2699,7 +2743,7 @@
       </c>
       <c r="L13" s="28"/>
       <c r="M13" s="29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="12"/>
@@ -2717,10 +2761,10 @@
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>17</v>
@@ -2736,17 +2780,17 @@
       </c>
       <c r="L14" s="28"/>
       <c r="M14" s="29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="1:16" s="13" customFormat="1" ht="126" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>51</v>
@@ -2765,7 +2809,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L15" s="28"/>
       <c r="M15" s="29" t="s">
@@ -2787,10 +2831,10 @@
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="30" t="s">
         <v>119</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>120</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>17</v>
@@ -2802,7 +2846,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="29" t="s">
@@ -2824,10 +2868,10 @@
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="30" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>17</v>
@@ -2843,7 +2887,7 @@
       </c>
       <c r="L17" s="28"/>
       <c r="M17" s="29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N17" s="14"/>
       <c r="O17" s="12"/>
@@ -2861,10 +2905,10 @@
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="30" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>17</v>
@@ -2880,7 +2924,7 @@
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="12"/>
@@ -2898,10 +2942,10 @@
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="30" t="s">
         <v>117</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>17</v>
@@ -2913,11 +2957,11 @@
         <v>14</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="12"/>
@@ -2935,10 +2979,10 @@
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="30" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>17</v>
@@ -2950,11 +2994,11 @@
         <v>14</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="12"/>
@@ -2972,10 +3016,10 @@
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="30" t="s">
         <v>119</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>160</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>17</v>
@@ -2987,11 +3031,11 @@
         <v>14</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L21" s="18"/>
       <c r="M21" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="12"/>
@@ -3009,10 +3053,10 @@
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>17</v>
@@ -3024,11 +3068,11 @@
         <v>14</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L22" s="18"/>
       <c r="M22" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N22" s="14"/>
       <c r="O22" s="12"/>
@@ -3046,10 +3090,10 @@
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>17</v>
@@ -3061,7 +3105,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="L23" s="18"/>
       <c r="M23" s="22" t="s">
@@ -3083,10 +3127,10 @@
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>17</v>
@@ -3098,11 +3142,11 @@
         <v>14</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L24" s="18"/>
       <c r="M24" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N24" s="16"/>
       <c r="O24" s="12"/>
@@ -3120,10 +3164,10 @@
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>17</v>
@@ -3139,7 +3183,7 @@
       </c>
       <c r="L25" s="18"/>
       <c r="M25" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N25" s="11"/>
     </row>
@@ -3156,10 +3200,10 @@
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>17</v>
@@ -3171,11 +3215,11 @@
         <v>14</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="L26" s="18"/>
       <c r="M26" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N26" s="11"/>
     </row>
@@ -3213,7 +3257,7 @@
     </row>
     <row r="28" spans="1:15" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>94</v>
@@ -3224,10 +3268,10 @@
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>17</v>
@@ -3239,17 +3283,17 @@
         <v>14</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L28" s="18"/>
       <c r="M28" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N28" s="11"/>
     </row>
     <row r="29" spans="1:15" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>95</v>
@@ -3260,10 +3304,10 @@
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>17</v>
@@ -3275,11 +3319,11 @@
         <v>14</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="L29" s="28"/>
       <c r="M29" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N29" s="9"/>
     </row>

--- a/target/classes/caseconf/userQueryLimit/Case_userQueryLimit.xlsx
+++ b/target/classes/caseconf/userQueryLimit/Case_userQueryLimit.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform/src/main/resources/caseconf/userQueryLimit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform0514/src/main/resources/caseconf/userQueryLimit/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-7480" yWindow="-24600" windowWidth="51200" windowHeight="28340"/>
+    <workbookView xWindow="-9620" yWindow="-28340" windowWidth="51200" windowHeight="28340"/>
   </bookViews>
   <sheets>
     <sheet name="userQueryLimit" sheetId="2" r:id="rId1"/>
@@ -1195,13 +1195,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
-delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
-delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
 insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
@@ -1503,59 +1496,6 @@
             "tenantId": "1001",
             "tenantUserId": "000113",
             "userId": 699222007535509504,
-            "name": "李四",
-            "mobileNo": "15510556733",
-            "certNo": "541222199303040000",
-            "email": "3234567@126.com",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000115",
-            "userId": 699297352645222400,
-            "name": "张*",
-            "mobileNo": "098*6543",
-            "certNo": "1234*6789",
-            "email": "3234***@126.com",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        },
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000117",
-            "userId": 699302184693145600,
-            "name": "张*",
-            "mobileNo": "098*6543",
-            "certNo": "1234*6789",
-            "email": "3234***@126.com",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "000113",
-            "userId": 699222007535509504,
             "name": "李*",
             "mobileNo": "155****6733",
             "certNo": "5412**********0000",
@@ -1735,6 +1675,66 @@
 }
 </t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000115",
+            "userId": 699297352645222400,
+            "name": "张*",
+            "mobileNo": "098*6543",
+            "certNo": "1234*6789",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        },
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000117",
+            "userId": 699302184693145600,
+            "name": "张*",
+            "mobileNo": "098*6543",
+            "certNo": "1234*6789",
+            "email": "3234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "000113",
+            "userId": 699222007535509504,
+            "name": "李四",
+            "mobileNo": "15510556733",
+            "certNo": "541222199303040000",
+            "email": "3234567@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1865,7 +1865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1959,6 +1959,15 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2244,16 +2253,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="221" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="221" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F16" sqref="F16"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="34" customWidth="1"/>
     <col min="4" max="4" width="1" style="8" customWidth="1"/>
     <col min="5" max="5" width="2.5" style="8" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="91" style="8" customWidth="1"/>
@@ -2277,7 +2286,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2327,16 +2336,16 @@
       <c r="B2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="33" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>17</v>
@@ -2364,7 +2373,7 @@
       <c r="B3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="33" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="17"/>
@@ -2389,7 +2398,7 @@
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="20" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="N3" s="16"/>
       <c r="O3" s="12"/>
@@ -2401,7 +2410,7 @@
       <c r="B4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="33" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="17"/>
@@ -2438,7 +2447,7 @@
       <c r="B5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="33" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="17"/>
@@ -2447,7 +2456,7 @@
         <v>118</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>17</v>
@@ -2463,7 +2472,7 @@
       </c>
       <c r="L5" s="18"/>
       <c r="M5" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="12"/>
@@ -2475,7 +2484,7 @@
       <c r="B6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="28"/>
@@ -2508,7 +2517,7 @@
       <c r="B7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="33" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="28"/>
@@ -2541,7 +2550,7 @@
       <c r="B8" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="33" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="28"/>
@@ -2574,7 +2583,7 @@
       <c r="B9" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="33" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="28"/>
@@ -2607,13 +2616,13 @@
       <c r="B10" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="33" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>124</v>
@@ -2632,7 +2641,7 @@
       </c>
       <c r="L10" s="28"/>
       <c r="M10" s="29" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="N10" s="16"/>
       <c r="O10" s="12"/>
@@ -2644,13 +2653,13 @@
       <c r="B11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="33" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>124</v>
@@ -2669,7 +2678,7 @@
       </c>
       <c r="L11" s="28"/>
       <c r="M11" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="12"/>
@@ -2681,16 +2690,16 @@
       <c r="B12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>17</v>
@@ -2706,7 +2715,7 @@
       </c>
       <c r="L12" s="28"/>
       <c r="M12" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N12" s="16"/>
       <c r="O12" s="12"/>
@@ -2718,16 +2727,16 @@
       <c r="B13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="33" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>17</v>
@@ -2743,7 +2752,7 @@
       </c>
       <c r="L13" s="28"/>
       <c r="M13" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="12"/>
@@ -2755,13 +2764,13 @@
       <c r="B14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="33" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>124</v>
@@ -2780,7 +2789,7 @@
       </c>
       <c r="L14" s="28"/>
       <c r="M14" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="12"/>
@@ -2792,7 +2801,7 @@
       <c r="B15" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="33" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="28"/>
@@ -2825,7 +2834,7 @@
       <c r="B16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="33" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="28"/>
@@ -2862,7 +2871,7 @@
       <c r="B17" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="33" t="s">
         <v>54</v>
       </c>
       <c r="D17" s="28"/>
@@ -2887,7 +2896,7 @@
       </c>
       <c r="L17" s="28"/>
       <c r="M17" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N17" s="14"/>
       <c r="O17" s="12"/>
@@ -2899,7 +2908,7 @@
       <c r="B18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="17"/>
@@ -2924,7 +2933,7 @@
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="12"/>
@@ -2957,11 +2966,11 @@
         <v>14</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="12"/>
@@ -2979,10 +2988,10 @@
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="30" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>17</v>
@@ -2994,7 +3003,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="22" t="s">
@@ -3016,7 +3025,7 @@
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>119</v>
@@ -3031,11 +3040,11 @@
         <v>14</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L21" s="18"/>
       <c r="M21" s="22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="12"/>
@@ -3072,7 +3081,7 @@
       </c>
       <c r="L22" s="18"/>
       <c r="M22" s="22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N22" s="14"/>
       <c r="O22" s="12"/>
@@ -3105,7 +3114,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L23" s="18"/>
       <c r="M23" s="22" t="s">
@@ -3142,7 +3151,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L24" s="18"/>
       <c r="M24" s="20" t="s">
@@ -3179,7 +3188,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L25" s="18"/>
       <c r="M25" s="20" t="s">
@@ -3215,7 +3224,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L26" s="18"/>
       <c r="M26" s="20" t="s">
@@ -3271,7 +3280,7 @@
         <v>118</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>17</v>
@@ -3283,7 +3292,7 @@
         <v>14</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L28" s="18"/>
       <c r="M28" s="22" t="s">
@@ -3307,7 +3316,7 @@
         <v>118</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>17</v>
@@ -3319,7 +3328,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L29" s="28"/>
       <c r="M29" s="22" t="s">
@@ -3398,7 +3407,7 @@
       <c r="B32" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="33" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="24"/>
@@ -3430,7 +3439,7 @@
       <c r="B33" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="33" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="24"/>
